--- a/covenants/Soulbinds.xlsx
+++ b/covenants/Soulbinds.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SpanierTh\source\repos\simc-profiles\covenants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spung\repos\simc-profiles\covenants\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03226D5-6E2F-4A10-92EF-9ABBAC321452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1335" windowWidth="17475" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SoulbindAbilities" sheetId="1" r:id="rId1"/>
     <sheet name="Conduits" sheetId="2" r:id="rId2"/>
     <sheet name="Soulbinds" sheetId="3" r:id="rId3"/>
     <sheet name="Covenants" sheetId="4" r:id="rId4"/>
+    <sheet name="Legendaries" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Conduits!$A$1:$K$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Legendaries!$A$1:$H$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SoulbindAbilities!$A$1:$J$177</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1413">
   <si>
     <t>pc</t>
   </si>
@@ -3673,12 +3676,618 @@
   </si>
   <si>
     <t>AllowedDefault</t>
+  </si>
+  <si>
+    <t>Disciplinary Command</t>
+  </si>
+  <si>
+    <t>Expanded Potential</t>
+  </si>
+  <si>
+    <t>Grisly Icicle</t>
+  </si>
+  <si>
+    <t>Triune Ward</t>
+  </si>
+  <si>
+    <t>Cold Front</t>
+  </si>
+  <si>
+    <t>Freezing Winds</t>
+  </si>
+  <si>
+    <t>Glacial Fragments</t>
+  </si>
+  <si>
+    <t>Slick Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eredun War Order" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shawl of the Ymirjar" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dawn of the Sun" </t>
+  </si>
+  <si>
+    <t>6823</t>
+  </si>
+  <si>
+    <t>327508</t>
+  </si>
+  <si>
+    <t>0x000000c0</t>
+  </si>
+  <si>
+    <t>6828</t>
+  </si>
+  <si>
+    <t>327284</t>
+  </si>
+  <si>
+    <t>0x00110020</t>
+  </si>
+  <si>
+    <t>6829</t>
+  </si>
+  <si>
+    <t>327364</t>
+  </si>
+  <si>
+    <t>0x00000402</t>
+  </si>
+  <si>
+    <t>6830</t>
+  </si>
+  <si>
+    <t>327492</t>
+  </si>
+  <si>
+    <t>0x00010080</t>
+  </si>
+  <si>
+    <t>6831</t>
+  </si>
+  <si>
+    <t>327489</t>
+  </si>
+  <si>
+    <t>0x00000140</t>
+  </si>
+  <si>
+    <t>6832</t>
+  </si>
+  <si>
+    <t>327365</t>
+  </si>
+  <si>
+    <t>0x00000a00</t>
+  </si>
+  <si>
+    <t>6834</t>
+  </si>
+  <si>
+    <t>327351</t>
+  </si>
+  <si>
+    <t>0x00100820</t>
+  </si>
+  <si>
+    <t>6926</t>
+  </si>
+  <si>
+    <t>332769</t>
+  </si>
+  <si>
+    <t>0x00000408</t>
+  </si>
+  <si>
+    <t>6927</t>
+  </si>
+  <si>
+    <t>332892</t>
+  </si>
+  <si>
+    <t>0x00010100</t>
+  </si>
+  <si>
+    <t>6928</t>
+  </si>
+  <si>
+    <t>332928</t>
+  </si>
+  <si>
+    <t>0x00000180</t>
+  </si>
+  <si>
+    <t>6931</t>
+  </si>
+  <si>
+    <t>333030</t>
+  </si>
+  <si>
+    <t>0x00000042</t>
+  </si>
+  <si>
+    <t>6932</t>
+  </si>
+  <si>
+    <t>333097</t>
+  </si>
+  <si>
+    <t>0x00000808</t>
+  </si>
+  <si>
+    <t>6933</t>
+  </si>
+  <si>
+    <t>333167</t>
+  </si>
+  <si>
+    <t>0x00000204</t>
+  </si>
+  <si>
+    <t>6934</t>
+  </si>
+  <si>
+    <t>333313</t>
+  </si>
+  <si>
+    <t>0x00000600</t>
+  </si>
+  <si>
+    <t>6936</t>
+  </si>
+  <si>
+    <t>333373</t>
+  </si>
+  <si>
+    <t>0x00100024</t>
+  </si>
+  <si>
+    <t>6937</t>
+  </si>
+  <si>
+    <t>333393</t>
+  </si>
+  <si>
+    <t>0x0000000a</t>
+  </si>
+  <si>
+    <t>6940</t>
+  </si>
+  <si>
+    <t>334501</t>
+  </si>
+  <si>
+    <t>6941</t>
+  </si>
+  <si>
+    <t>334525</t>
+  </si>
+  <si>
+    <t>6942</t>
+  </si>
+  <si>
+    <t>334547</t>
+  </si>
+  <si>
+    <t>0x00000820</t>
+  </si>
+  <si>
+    <t>6943</t>
+  </si>
+  <si>
+    <t>334580</t>
+  </si>
+  <si>
+    <t>6944</t>
+  </si>
+  <si>
+    <t>334583</t>
+  </si>
+  <si>
+    <t>6945</t>
+  </si>
+  <si>
+    <t>334678</t>
+  </si>
+  <si>
+    <t>6946</t>
+  </si>
+  <si>
+    <t>334692</t>
+  </si>
+  <si>
+    <t>6947</t>
+  </si>
+  <si>
+    <t>334728</t>
+  </si>
+  <si>
+    <t>6948</t>
+  </si>
+  <si>
+    <t>334724</t>
+  </si>
+  <si>
+    <t>6949</t>
+  </si>
+  <si>
+    <t>334836</t>
+  </si>
+  <si>
+    <t>6950</t>
+  </si>
+  <si>
+    <t>334888</t>
+  </si>
+  <si>
+    <t>6951</t>
+  </si>
+  <si>
+    <t>334898</t>
+  </si>
+  <si>
+    <t>6952</t>
+  </si>
+  <si>
+    <t>334949</t>
+  </si>
+  <si>
+    <t>0x00010020</t>
+  </si>
+  <si>
+    <t>6953</t>
+  </si>
+  <si>
+    <t>334974</t>
+  </si>
+  <si>
+    <t>0x00000024</t>
+  </si>
+  <si>
+    <t>6954</t>
+  </si>
+  <si>
+    <t>335177</t>
+  </si>
+  <si>
+    <t>6955</t>
+  </si>
+  <si>
+    <t>335214</t>
+  </si>
+  <si>
+    <t>6956</t>
+  </si>
+  <si>
+    <t>335229</t>
+  </si>
+  <si>
+    <t>0x00000500</t>
+  </si>
+  <si>
+    <t>6957</t>
+  </si>
+  <si>
+    <t>335239</t>
+  </si>
+  <si>
+    <t>0x00010008</t>
+  </si>
+  <si>
+    <t>6958</t>
+  </si>
+  <si>
+    <t>335253</t>
+  </si>
+  <si>
+    <t>6959</t>
+  </si>
+  <si>
+    <t>335266</t>
+  </si>
+  <si>
+    <t>6960</t>
+  </si>
+  <si>
+    <t>335274</t>
+  </si>
+  <si>
+    <t>6961</t>
+  </si>
+  <si>
+    <t>335451</t>
+  </si>
+  <si>
+    <t>6962</t>
+  </si>
+  <si>
+    <t>335458</t>
+  </si>
+  <si>
+    <t>6963</t>
+  </si>
+  <si>
+    <t>335555</t>
+  </si>
+  <si>
+    <t>6964</t>
+  </si>
+  <si>
+    <t>335567</t>
+  </si>
+  <si>
+    <t>6965</t>
+  </si>
+  <si>
+    <t>335582</t>
+  </si>
+  <si>
+    <t>6966</t>
+  </si>
+  <si>
+    <t>335594</t>
+  </si>
+  <si>
+    <t>6967</t>
+  </si>
+  <si>
+    <t>335629</t>
+  </si>
+  <si>
+    <t>6969</t>
+  </si>
+  <si>
+    <t>335718</t>
+  </si>
+  <si>
+    <t>6970</t>
+  </si>
+  <si>
+    <t>335282</t>
+  </si>
+  <si>
+    <t>6971</t>
+  </si>
+  <si>
+    <t>335758</t>
+  </si>
+  <si>
+    <t>6972</t>
+  </si>
+  <si>
+    <t>336470</t>
+  </si>
+  <si>
+    <t>6973</t>
+  </si>
+  <si>
+    <t>336400</t>
+  </si>
+  <si>
+    <t>6974</t>
+  </si>
+  <si>
+    <t>336266</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>336370</t>
+  </si>
+  <si>
+    <t>6976</t>
+  </si>
+  <si>
+    <t>336011</t>
+  </si>
+  <si>
+    <t>6977</t>
+  </si>
+  <si>
+    <t>336314</t>
+  </si>
+  <si>
+    <t>6978</t>
+  </si>
+  <si>
+    <t>336507</t>
+  </si>
+  <si>
+    <t>6979</t>
+  </si>
+  <si>
+    <t>336133</t>
+  </si>
+  <si>
+    <t>6980</t>
+  </si>
+  <si>
+    <t>336067</t>
+  </si>
+  <si>
+    <t>6981</t>
+  </si>
+  <si>
+    <t>336165</t>
+  </si>
+  <si>
+    <t>6982</t>
+  </si>
+  <si>
+    <t>336143</t>
+  </si>
+  <si>
+    <t>6983</t>
+  </si>
+  <si>
+    <t>336214</t>
+  </si>
+  <si>
+    <t>BonusId</t>
+  </si>
+  <si>
+    <t>Wtf</t>
+  </si>
+  <si>
+    <t>Temporal Warp</t>
+  </si>
+  <si>
+    <t>Arcane Bombardment</t>
+  </si>
+  <si>
+    <t>Siphon Storm</t>
+  </si>
+  <si>
+    <t>Fevered Incantation</t>
+  </si>
+  <si>
+    <t>Firestorm</t>
+  </si>
+  <si>
+    <t>Molten Skyfall</t>
+  </si>
+  <si>
+    <t>Sun King's Blessing</t>
+  </si>
+  <si>
+    <t>Bryndaor's Might</t>
+  </si>
+  <si>
+    <t>Crimson Rune Weapon</t>
+  </si>
+  <si>
+    <t>Vampiric Aura</t>
+  </si>
+  <si>
+    <t>Gorefiend's Domination</t>
+  </si>
+  <si>
+    <t>Koltira's Favor</t>
+  </si>
+  <si>
+    <t>Absolute Zero</t>
+  </si>
+  <si>
+    <t>Death's Embrace</t>
+  </si>
+  <si>
+    <t>Grip of the Everlasting</t>
+  </si>
+  <si>
+    <t>Reanimated Shambler</t>
+  </si>
+  <si>
+    <t>Frenzied Monstrosity</t>
+  </si>
+  <si>
+    <t>Death's Certainty</t>
+  </si>
+  <si>
+    <t>Deadliest Coil</t>
+  </si>
+  <si>
+    <t>Superstrain</t>
+  </si>
+  <si>
+    <t>Phearomones</t>
+  </si>
+  <si>
+    <t>Leaper</t>
+  </si>
+  <si>
+    <t>Thunderlord</t>
+  </si>
+  <si>
+    <t>The Wall</t>
+  </si>
+  <si>
+    <t>Misshapen Mirror</t>
+  </si>
+  <si>
+    <t>Signet of Tormented Kings</t>
+  </si>
+  <si>
+    <t>Battlelord</t>
+  </si>
+  <si>
+    <t>Exploiter</t>
+  </si>
+  <si>
+    <t>Enduring Blow</t>
+  </si>
+  <si>
+    <t>Cadence of Fujieda</t>
+  </si>
+  <si>
+    <t>Deathmaker</t>
+  </si>
+  <si>
+    <t>Reckless Defense</t>
+  </si>
+  <si>
+    <t>Will of the Berserker</t>
+  </si>
+  <si>
+    <t>Unbreakable Will</t>
+  </si>
+  <si>
+    <t>Reprisal</t>
+  </si>
+  <si>
+    <t>Unhinged</t>
+  </si>
+  <si>
+    <t>Seismic Reverberation</t>
+  </si>
+  <si>
+    <t>Vault of Heavens</t>
+  </si>
+  <si>
+    <t>Divine Image</t>
+  </si>
+  <si>
+    <t>Flash Concentration</t>
+  </si>
+  <si>
+    <t>Cauterizing Shadows</t>
+  </si>
+  <si>
+    <t>The Penitent One</t>
+  </si>
+  <si>
+    <t>Harmonious Apparatus</t>
+  </si>
+  <si>
+    <t>Crystalline Reflection</t>
+  </si>
+  <si>
+    <t>Kiss of Death</t>
+  </si>
+  <si>
+    <t>Clarity of Mind</t>
+  </si>
+  <si>
+    <t>Painbreaker Psalm</t>
+  </si>
+  <si>
+    <t>Shadowflame Prism</t>
+  </si>
+  <si>
+    <t>Eternal Call to the Void</t>
+  </si>
+  <si>
+    <t>Arcane Harmony</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4024,18 +4633,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView topLeftCell="B98" workbookViewId="0">
-      <selection activeCell="B129" sqref="A129:XFD129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="51.42578125" bestFit="1" customWidth="1"/>
@@ -4070,19 +4679,19 @@
         <v>1208</v>
       </c>
       <c r="J1" t="str">
-        <f>CONCATENATE(A1,",",B1,",",C1,",",D1,",",E1,",",F1,",",G1,",",H1,",",I1)</f>
+        <f t="shared" ref="J1:J64" si="0">CONCATENATE(A1,",",B1,",",C1,",",D1,",",E1,",",F1,",",G1,",",H1,",",I1)</f>
         <v>Id,Code,Name,Type,Tier,Renown,SoulbindCode,ParentId,IgnoredDefault</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -4100,25 +4709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J65" si="0">CONCATENATE(A2,",",B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2)</f>
-        <v>332755,UBody,Unbreakable Body,sb,1,0,Draven,,0</v>
+        <f t="shared" si="0"/>
+        <v>340159,SIStone,Service In Stone,sb,1,0,Draven,,0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1100</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>1190</v>
+        <v>1205</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4131,21 +4740,21 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" si="0"/>
-        <v>332756,ELeader,Expedition Leader,sb,1,0,Draven,,0</v>
+        <v>Draven_end1,Draven_end1,Endurance Conduit,ec,2,0,Draven,,0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4156,23 +4765,24 @@
       <c r="G4" t="s">
         <v>106</v>
       </c>
+      <c r="H4" s="1"/>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>Draven_end1,Draven_end1,Endurance Conduit,ec,2,0,Draven,,0</v>
+        <v>Draven_fin1,Draven_fin1,Finesse Conduit,fc,2,0,Draven,,0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -4186,23 +4796,26 @@
       <c r="G5" t="s">
         <v>106</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>319973,BfWar,Built for War,sb,3,0,Draven,,0</v>
+        <v>319978,EGloom,Enduring Gloom,sb,3,0,Draven,Draven_fin1,0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1097</v>
+        <v>1033</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>1187</v>
+        <v>1122</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -4216,29 +4829,32 @@
       <c r="G6" t="s">
         <v>106</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>332753,STactics,Superior Tactics,sb,3,0,Draven,,0</v>
+        <v>319982,MAOne,Move As One,sb,3,0,Draven,Draven_end1,0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1098</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>1188</v>
+        <v>1206</v>
       </c>
       <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>4</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4246,29 +4862,30 @@
       <c r="G7" t="s">
         <v>106</v>
       </c>
+      <c r="H7" s="1"/>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>332754,HYGround,Hold Your Ground,sb,3,0,Draven,,0</v>
+        <v>Draven_pot1,Draven_pot1,Potency Conduit,pc,4,0,Draven,,0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>1099</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4276,32 +4893,29 @@
       <c r="G8" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="1">
-        <v>332753</v>
-      </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>Draven_end2,Draven_end2,Endurance Conduit,ec,4,0,Draven,332753,0</v>
+        <v>332755,UBody,Unbreakable Body,sb,5,0,Draven,,1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>1100</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4309,32 +4923,29 @@
       <c r="G9" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="1">
-        <v>319973</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>Draven_fin1,Draven_fin1,Finesse Conduit,fc,4,0,Draven,319973,0</v>
+        <v>332756,ELeader,Expedition Leader,sb,5,0,Draven,,0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4342,15 +4953,13 @@
       <c r="G10" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="1">
-        <v>332754</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>Draven_pot1,Draven_pot1,Potency Conduit,pc,4,0,Draven,332754,0</v>
+        <v>Draven_end2,Draven_end2,Endurance Conduit,ec,6,0,Draven,,0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4367,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>106</v>
@@ -4380,144 +4989,146 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>Draven_pot2,Draven_pot2,Potency Conduit,pc,5,0,Draven,,0</v>
+        <v>Draven_pot2,Draven_pot2,Potency Conduit,pc,7,29,Draven,,0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
+        <v>183</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>1121</v>
+        <v>1205</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>106</v>
       </c>
+      <c r="H12" s="1"/>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>319978,EGloom,Enduring Gloom,sb,6,27,Draven,,0</v>
+        <v>Draven_end3,Draven_end3,Endurance Conduit,ec,7,29,Draven,,0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>1006</v>
       </c>
       <c r="C13" t="s">
-        <v>1122</v>
+        <v>1207</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>106</v>
       </c>
+      <c r="H13" s="1"/>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>319982,MAOne,Move As One,sb,6,27,Draven,,0</v>
+        <v>Draven_fin2,Draven_fin2,Finesse Conduit,fc,7,29,Draven,,0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>1031</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>1205</v>
+        <v>1120</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="1">
-        <v>319982</v>
+      <c r="H14" s="1" t="s">
+        <v>1006</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>Draven_end3,Draven_end3,Endurance Conduit,ec,7,35,Draven,319982,0</v>
+        <v>319973,BfWar,Built for War,sb,8,31,Draven,Draven_fin2,0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1006</v>
+        <v>1097</v>
       </c>
       <c r="B15" t="s">
-        <v>1006</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>1207</v>
+        <v>1187</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="1">
-        <v>319978</v>
+      <c r="H15" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>Draven_fin2,Draven_fin2,Finesse Conduit,fc,7,35,Draven,319978,0</v>
+        <v>332753,STactics,Superior Tactics,sb,8,31,Draven,Draven_end3,0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -4526,28 +5137,31 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>106</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>340159,SIStone,Service In Stone,sb,8,39,Draven,,0</v>
+        <v>332754,HYGround,Hold Your Ground,sb,8,31,Draven,Draven_pot2,0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>1030</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -4566,7 +5180,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>319191,FoBloss,Field of Blossoms,sb,1,0,Dream,,0</v>
+        <v>319217,Ptender,Podtender,sb,1,0,Dream,,0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4601,16 +5215,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4626,27 +5240,27 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>Dreamweaver_pot1,Dreamweaver_pot1,Potency Conduit,pc,2,0,Dream,,0</v>
+        <v>Dreamweaver_end1,Dreamweaver_end1,Endurance Conduit,ec,2,0,Dream,,0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -4656,7 +5270,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>Dreamweaver_end1,Dreamweaver_end1,Endurance Conduit,ec,3,5,Dream,,0</v>
+        <v>Dreamweaver_pot1,Dreamweaver_pot1,Potency Conduit,pc,3,0,Dream,,0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4676,7 +5290,7 @@
         <v>4</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -4686,7 +5300,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>319210,SBfly,Social Butterfly,sb,4,10,Dream,,0</v>
+        <v>319210,SBfly,Social Butterfly,sb,4,9,Dream,,0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4706,7 +5320,7 @@
         <v>4</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -4716,7 +5330,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>319211,SVoice,Soothing Voice,sb,4,10,Dream,,0</v>
+        <v>319211,SVoice,Soothing Voice,sb,4,9,Dream,,0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4736,17 +5350,17 @@
         <v>4</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>319213,EChrys,Empowered Chrysalis,sb,4,10,Dream,,0</v>
+        <v>319213,EChrys,Empowered Chrysalis,sb,4,9,Dream,,1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4865,7 +5479,7 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -4875,7 +5489,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>Dreamweaver_end3,Dreamweaver_end3,Endurance Conduit,ec,6,28,Dream,,0</v>
+        <v>Dreamweaver_end3,Dreamweaver_end3,Endurance Conduit,ec,6,21,Dream,,0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4895,7 +5509,7 @@
         <v>7</v>
       </c>
       <c r="F28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -4905,7 +5519,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>319214,FDust,Faerie Dust,sb,7,32,Dream,,0</v>
+        <v>319214,FDust,Faerie Dust,sb,7,29,Dream,,0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4925,28 +5539,28 @@
         <v>7</v>
       </c>
       <c r="F29">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>319216,Somnam,Somnambulist,sb,7,32,Dream,,0</v>
+        <v>319216,Somnam,Somnambulist,sb,7,29,Dream,,1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1030</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -4955,7 +5569,7 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -4965,18 +5579,18 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>319217,Ptender,Podtender,sb,8,39,Dream,,0</v>
+        <v>319191,FoBloss,Field of Blossoms,sb,8,34,Dream,,0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1051</v>
+        <v>1111</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>1141</v>
+        <v>1203</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -4995,24 +5609,24 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>323921,EMSkin,Emeni's Magnificent Skin,sb,1,0,Emeni,,0</v>
+        <v>342156,LbExample,Lead by Example,sb,1,0,Emeni,,0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1110</v>
+        <v>1051</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>1202</v>
+        <v>1141</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5025,21 +5639,21 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>341650,EAFlesh,Emeni's Ambulatory Flesh,sb,1,0,Emeni,,0</v>
+        <v>323921,EMSkin,Emeni's Magnificent Skin,sb,2,0,Emeni,,0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>1110</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -5050,32 +5664,29 @@
       <c r="G33" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="1">
-        <v>341650</v>
-      </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>Emeni_end1,Emeni_end1,Endurance Conduit,ec,2,0,Emeni,341650,0</v>
+        <v>341650,EAFlesh,Emeni's Ambulatory Flesh,sb,2,0,Emeni,,1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -5084,28 +5695,28 @@
         <v>102</v>
       </c>
       <c r="H34" s="1">
-        <v>323921</v>
+        <v>341650</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>Emeni_pot1,Emeni_pot1,Potency Conduit,pc,2,0,Emeni,323921,0</v>
+        <v>Emeni_end1,Emeni_end1,Endurance Conduit,ec,3,0,Emeni,341650,0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -5116,32 +5727,35 @@
       <c r="G35" t="s">
         <v>102</v>
       </c>
+      <c r="H35" s="1">
+        <v>323921</v>
+      </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>Emeni_fin1,Emeni_fin1,Finesse Conduit,fc,3,0,Emeni,,0</v>
+        <v>Emeni_pot1,Emeni_pot1,Potency Conduit,pc,3,0,Emeni,323921,0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1048</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>1138</v>
+        <v>1207</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
         <v>102</v>
@@ -5151,27 +5765,27 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>323916,SEmission,Sulfuric Emission,sb,4,10,Emeni,,0</v>
+        <v>Emeni_fin1,Emeni_fin1,Finesse Conduit,fc,4,8,Emeni,,0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
         <v>102</v>
@@ -5181,103 +5795,99 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>323918,GrToes,Gristled Toes,sb,4,10,Emeni,,0</v>
+        <v>324440,CLegs,Cartilaginous Legs,sb,5,13,Emeni,,0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
         <v>102</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>323919,GnChomp,Gnashing Chompers,sb,4,10,Emeni,,0</v>
+        <v>324441,HKidney,Hearth Kidneystone,sb,5,13,Emeni,,1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D39" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="1">
-        <v>323918</v>
-      </c>
+      <c r="H39" s="1"/>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>Emeni_pot2,Emeni_pot2,Potency Conduit,pc,5,13,Emeni,323918,0</v>
+        <v>Emeni_end2,Emeni_end2,Endurance Conduit,ec,6,18,Emeni,,0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
         <v>102</v>
       </c>
-      <c r="H40" s="1">
-        <v>323919</v>
-      </c>
+      <c r="H40" s="1"/>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
-        <v>Emeni_end2,Emeni_end2,Endurance Conduit,ec,5,13,Emeni,323919,0</v>
+        <v>Emeni_pot2,Emeni_pot2,Potency Conduit,pc,7,28,Emeni,,0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -5294,23 +5904,21 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="1">
-        <v>323916</v>
-      </c>
+      <c r="H41" s="1"/>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
-        <v>Emeni_fin2,Emeni_fin2,Finesse Conduit,fc,5,13,Emeni,323916,0</v>
+        <v>Emeni_fin2,Emeni_fin2,Finesse Conduit,fc,7,28,Emeni,,0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -5327,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42">
         <v>28</v>
@@ -5340,78 +5948,84 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>Emeni_end3,Emeni_end3,Endurance Conduit,ec,6,28,Emeni,,0</v>
+        <v>Emeni_end3,Emeni_end3,Endurance Conduit,ec,7,28,Emeni,,0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
         <v>102</v>
       </c>
+      <c r="H43" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
-        <v>324440,CLegs,Cartilaginous Legs,sb,7,32,Emeni,,0</v>
+        <v>323916,SEmission,Sulfuric Emission,sb,8,34,Emeni,Emeni_fin2,1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>102</v>
       </c>
+      <c r="H44" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
-        <v>324441,HKidney,Hearth Kidneystone,sb,7,32,Emeni,,0</v>
+        <v>323918,GrToes,Gristled Toes,sb,8,34,Emeni,Emeni_pot2,0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1111</v>
+        <v>1050</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>1203</v>
+        <v>1140</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -5420,17 +6034,20 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>102</v>
       </c>
+      <c r="H45" s="1" t="s">
+        <v>1001</v>
+      </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
-        <v>342156,LbExample,Lead by Example,sb,8,39,Emeni,,0</v>
+        <v>323919,GnChomp,Gnashing Chompers,sb,8,34,Emeni,Emeni_end3,0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5477,7 +6094,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5486,25 +6103,25 @@
         <v>100</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
-        <v>331610,CAdditive,Charged Additive,sb,1,0,Forgelite,,0</v>
+        <v>331610,CAdditive,Charged Additive,sb,2,0,Forgelite,,1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>1102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -5515,32 +6132,29 @@
       <c r="G48" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="1">
-        <v>331609</v>
-      </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
-        <v>Forgelite_end1,Forgelite_end1,Endurance Conduit,ec,2,0,Forgelite,331609,0</v>
+        <v>333950,BCtAction,Bron's Call to Action,sb,2,0,Forgelite,,0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D49" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5548,29 +6162,29 @@
       <c r="G49" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="1">
-        <v>331610</v>
+      <c r="H49" s="1" t="s">
+        <v>1092</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
-        <v>Forgelite_pot1,Forgelite_pot1,Potency Conduit,pc,2,0,Forgelite,331610,0</v>
+        <v>Forgelite_end1,Forgelite_end1,Endurance Conduit,ec,3,0,Forgelite,331610,0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -5581,26 +6195,29 @@
       <c r="G50" t="s">
         <v>100</v>
       </c>
+      <c r="H50" s="1" t="s">
+        <v>1091</v>
+      </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
-        <v>Forgelite_fin1,Forgelite_fin1,Finesse Conduit,fc,3,0,Forgelite,,0</v>
+        <v>Forgelite_pot1,Forgelite_pot1,Potency Conduit,pc,3,0,Forgelite,331609,0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B51" t="s">
-        <v>74</v>
+        <v>121</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>1183</v>
+        <v>1207</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>4</v>
@@ -5616,24 +6233,24 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
-        <v>331611,SClamps,Soulsteel Clamps,sb,4,0,Forgelite,,0</v>
+        <v>Forgelite_fin1,Forgelite_fin1,Finesse Conduit,fc,4,0,Forgelite,,0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5646,24 +6263,24 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
-        <v>331612,SDCore,Sparkling Driftglobe Core,sb,4,0,Forgelite,,0</v>
+        <v>331725,RPlumage,Resilient Plumage,sb,5,0,Forgelite,,0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5672,11 +6289,11 @@
         <v>100</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
-        <v>333935,HoGenesis,Hammer of Genesis,sb,4,0,Forgelite,,0</v>
+        <v>331726,RMaterials,Regenerating Materials,sb,5,0,Forgelite,,1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5693,7 +6310,7 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5701,15 +6318,13 @@
       <c r="G54" t="s">
         <v>100</v>
       </c>
-      <c r="H54" s="1">
-        <v>333935</v>
-      </c>
+      <c r="H54" s="1"/>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
-        <v>Forgelite_end2,Forgelite_end2,Endurance Conduit,ec,5,0,Forgelite,333935,0</v>
+        <v>Forgelite_end2,Forgelite_end2,Endurance Conduit,ec,6,0,Forgelite,,0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5726,23 +6341,21 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>100</v>
       </c>
-      <c r="H55" s="1">
-        <v>331612</v>
-      </c>
+      <c r="H55" s="1"/>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
-        <v>Forgelite_fin2,Forgelite_fin2,Finesse Conduit,fc,5,0,Forgelite,331612,0</v>
+        <v>Forgelite_fin2,Forgelite_fin2,Finesse Conduit,fc,7,29,Forgelite,,0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5759,23 +6372,21 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
         <v>100</v>
       </c>
-      <c r="H56" s="1">
-        <v>333935</v>
-      </c>
+      <c r="H56" s="1"/>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
-        <v>Forgelite_pot2,Forgelite_pot2,Potency Conduit,pc,5,0,Forgelite,333935,0</v>
+        <v>Forgelite_pot2,Forgelite_pot2,Potency Conduit,pc,7,29,Forgelite,,0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5792,10 +6403,10 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
         <v>100</v>
@@ -5806,78 +6417,84 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
-        <v>Forgelite_end3,Forgelite_end3,Endurance Conduit,ec,6,27,Forgelite,,0</v>
+        <v>Forgelite_end3,Forgelite_end3,Endurance Conduit,ec,7,29,Forgelite,,0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>100</v>
       </c>
+      <c r="H58" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
-        <v>331725,RPlumage,Resilient Plumage,sb,7,35,Forgelite,,0</v>
+        <v>331611,SClamps,Soulsteel Clamps,sb,8,31,Forgelite,Forgelite_pot2,0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>100</v>
       </c>
+      <c r="H59" t="s">
+        <v>122</v>
+      </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
-        <v>331726,RMaterials,Regenerating Materials,sb,7,35,Forgelite,,0</v>
+        <v>331612,SDCore,Sparkling Driftglobe Core,sb,8,31,Forgelite,Forgelite_fin2,1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -5886,28 +6503,31 @@
         <v>8</v>
       </c>
       <c r="F60">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>100</v>
       </c>
+      <c r="H60" t="s">
+        <v>1005</v>
+      </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
-        <v>333950,BCtAction,Bron's Call to Action,sb,8,39,Forgelite,,0</v>
+        <v>333935,HoGenesis,Hammer of Genesis,sb,8,31,Forgelite,Forgelite_end3,0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -5926,24 +6546,24 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
-        <v>326504,SSpaul,Serrated Spaulders,sb,1,0,Heirmir,,0</v>
+        <v>326514,FReveries,Forgeborne Reveries,sb,1,0,Heirmir,,0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5956,21 +6576,21 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
-        <v>326507,RFlesh,Resourceful Fleshcrafting,sb,1,0,Heirmir,,0</v>
+        <v>326504,SSpaul,Serrated Spaulders,sb,2,0,Heirmir,,0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>140</v>
+        <v>1063</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>1205</v>
+        <v>1153</v>
       </c>
       <c r="D63" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -5981,32 +6601,29 @@
       <c r="G63" t="s">
         <v>182</v>
       </c>
-      <c r="H63" s="1">
-        <v>326504</v>
-      </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
-        <v>Heimir_end1,Heimir_end1,Endurance Conduit,ec,2,0,Heirmir,326504,0</v>
+        <v>326507,RFlesh,Resourceful Fleshcrafting,sb,2,0,Heirmir,,0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D64" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -6015,28 +6632,28 @@
         <v>182</v>
       </c>
       <c r="H64" s="1">
-        <v>326507</v>
+        <v>326504</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
-        <v>Heimir_pot1,Heimir_pot1,Potency Conduit,pc,2,0,Heirmir,326507,0</v>
+        <v>Heimir_end1,Heimir_end1,Endurance Conduit,ec,3,0,Heirmir,326504,0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -6047,26 +6664,29 @@
       <c r="G65" t="s">
         <v>182</v>
       </c>
+      <c r="H65" s="1">
+        <v>326507</v>
+      </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="0"/>
-        <v>Heimir_fin1,Heimir_fin1,Finesse Conduit,fc,3,0,Heirmir,,0</v>
+        <f t="shared" ref="J65:J128" si="1">CONCATENATE(A65,",",B65,",",C65,",",D65,",",E65,",",F65,",",G65,",",H65,",",I65)</f>
+        <v>Heimir_pot1,Heimir_pot1,Potency Conduit,pc,3,0,Heirmir,326507,0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B66" t="s">
-        <v>45</v>
+        <v>139</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>1154</v>
+        <v>1207</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -6081,25 +6701,25 @@
         <v>0</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" ref="J66:J129" si="1">CONCATENATE(A66,",",B66,",",C66,",",D66,",",E66,",",F66,",",G66,",",H66,",",I66)</f>
-        <v>326509,HARPen,Heirmir's Arsenal: Ravenous Pendant,sb,4,0,Heirmir,,0</v>
+        <f t="shared" si="1"/>
+        <v>Heimir_fin1,Heimir_fin1,Finesse Conduit,fc,4,0,Heirmir,,0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6112,24 +6732,24 @@
       </c>
       <c r="J67" t="str">
         <f t="shared" si="1"/>
-        <v>326511,HAGstomp,Heirmir's Arsenal: Gorestompers,sb,4,0,Heirmir,,0</v>
+        <v>326512,RSpurs,Runeforged Spurs,sb,5,0,Heirmir,,0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -6138,11 +6758,11 @@
         <v>182</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="1"/>
-        <v>326572,HAMGemstone,Heirmir's Arsenal: Marrowed Gemstone,sb,4,0,Heirmir,,0</v>
+        <v>326513,BSatchel,Bonesmith's Satchel,sb,5,0,Heirmir,,1</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -6159,7 +6779,7 @@
         <v>2</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -6167,15 +6787,13 @@
       <c r="G69" t="s">
         <v>182</v>
       </c>
-      <c r="H69" s="1">
-        <v>326572</v>
-      </c>
+      <c r="H69" s="1"/>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="1"/>
-        <v>Heimir_end2,Heimir_end2,Endurance Conduit,ec,5,0,Heirmir,326572,0</v>
+        <v>Heimir_end2,Heimir_end2,Endurance Conduit,ec,6,0,Heirmir,,0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -6192,23 +6810,21 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>182</v>
       </c>
-      <c r="H70" s="1">
-        <v>326509</v>
-      </c>
+      <c r="H70" s="1"/>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="1"/>
-        <v>Heimir_fin2,Heimir_fin2,Finesse Conduit,fc,5,0,Heirmir,326509,0</v>
+        <v>Heimir_fin2,Heimir_fin2,Finesse Conduit,fc,7,29,Heirmir,,0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -6225,23 +6841,21 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
         <v>182</v>
       </c>
-      <c r="H71" s="1">
-        <v>326511</v>
-      </c>
+      <c r="H71" s="1"/>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="1"/>
-        <v>Heimir_pot2,Heimir_pot2,Potency Conduit,pc,5,0,Heirmir,326511,0</v>
+        <v>Heimir_pot2,Heimir_pot2,Potency Conduit,pc,7,29,Heirmir,,0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -6258,10 +6872,10 @@
         <v>2</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
         <v>182</v>
@@ -6271,78 +6885,84 @@
       </c>
       <c r="J72" t="str">
         <f t="shared" si="1"/>
-        <v>Heimir_end3,Heimir_end3,Endurance Conduit,ec,6,27,Heirmir,,0</v>
+        <v>Heimir_end3,Heimir_end3,Endurance Conduit,ec,7,29,Heirmir,,0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F73">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>182</v>
       </c>
+      <c r="H73" s="1" t="s">
+        <v>1002</v>
+      </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="1"/>
-        <v>326512,RSpurs,Runeforged Spurs,sb,7,35,Heirmir,,0</v>
+        <v>326509,HARPen,Heirmir's Arsenal: Ravenous Pendant,sb,8,31,Heirmir,Heimir_fin2,1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>182</v>
       </c>
+      <c r="H74" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="1"/>
-        <v>326513,BSatchel,Bonesmith's Satchel,sb,7,35,Heirmir,,0</v>
+        <v>326511,HAGstomp,Heirmir's Arsenal: Gorestompers,sb,8,31,Heirmir,Heimir_pot2,0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -6351,28 +6971,31 @@
         <v>8</v>
       </c>
       <c r="F75">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>182</v>
       </c>
+      <c r="H75" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="1"/>
-        <v>326514,FReveries,Forgeborne Reveries,sb,8,39,Heirmir,,0</v>
+        <v>326572,HAMGemstone,Heirmir's Arsenal: Marrowed Gemstone,sb,8,31,Heirmir,Heimir_end3,0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -6391,24 +7014,24 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" si="1"/>
-        <v>329776,AscPhial,Ascendant Phial,sb,1,0,Kleia,,0</v>
+        <v>329791,VStrikes,Valiant Strikes,sb,1,0,Kleia,,0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1103</v>
+        <v>1076</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>1193</v>
+        <v>1166</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6417,25 +7040,25 @@
         <v>99</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="1"/>
-        <v>334066,Mentor,Mentorship,sb,1,0,Kleia,,0</v>
+        <v>329776,AscPhial,Ascendant Phial,sb,2,0,Kleia,,1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>1103</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="D78" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -6446,32 +7069,29 @@
       <c r="G78" t="s">
         <v>99</v>
       </c>
-      <c r="H78" s="1">
-        <v>334066</v>
-      </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="1"/>
-        <v>Kleia_pot1,Kleia_pot1,Potency Conduit,pc,2,0,Kleia,334066,0</v>
+        <v>334066,Mentor,Mentorship,sb,2,0,Kleia,,0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D79" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6480,28 +7100,28 @@
         <v>99</v>
       </c>
       <c r="H79" s="1">
-        <v>329776</v>
+        <v>334066</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="1"/>
-        <v>Kleia_end1,Kleia_end1,Endurance Conduit,ec,2,0,Kleia,329776,0</v>
+        <v>Kleia_pot1,Kleia_pot1,Potency Conduit,pc,3,0,Kleia,334066,0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -6512,32 +7132,35 @@
       <c r="G80" t="s">
         <v>99</v>
       </c>
+      <c r="H80" s="1">
+        <v>329776</v>
+      </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="1"/>
-        <v>Kleia_fin1,Kleia_fin1,Finesse Conduit,fc,3,0,Kleia,,0</v>
+        <v>Kleia_end1,Kleia_end1,Endurance Conduit,ec,3,0,Kleia,329776,0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1078</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>1168</v>
+        <v>1207</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>4</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
         <v>99</v>
@@ -6547,27 +7170,27 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" si="1"/>
-        <v>329778,PCourage,Pointed Courage,sb,4,10,Kleia,,0</v>
+        <v>Kleia_fin1,Kleia_fin1,Finesse Conduit,fc,4,9,Kleia,,0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
         <v>99</v>
@@ -6577,37 +7200,37 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" si="1"/>
-        <v>329779,BPursuit,Bearer's Pursuit,sb,4,10,Kleia,,0</v>
+        <v>328258,EForward,Ever Forward,sb,5,13,Kleia,,0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
         <v>99</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="1"/>
-        <v>329781,RAAccolade,Resonant Accolades,sb,4,10,Kleia,,0</v>
+        <v>329784,CRites,Cleansing Rites,sb,5,13,Kleia,,1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -6624,106 +7247,99 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
         <v>99</v>
       </c>
-      <c r="H84" s="1">
-        <v>329779</v>
-      </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="1"/>
-        <v>Kleia_end2,Kleia_end2,Endurance Conduit,ec,5,13,Kleia,329779,0</v>
+        <v>Kleia_end2,Kleia_end2,Endurance Conduit,ec,6,18,Kleia,,0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>1004</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>1004</v>
       </c>
       <c r="C85" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D85" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F85">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G85" t="s">
         <v>99</v>
       </c>
-      <c r="H85" s="1">
-        <v>329778</v>
-      </c>
+      <c r="H85" s="1"/>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="1"/>
-        <v>Kleia_fin2,Kleia_fin2,Finesse Conduit,fc,5,13,Kleia,329778,0</v>
+        <v>Kleia_end3,Kleia_end3,Endurance Conduit,ec,7,28,Kleia,,0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D86" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F86">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G86" t="s">
         <v>99</v>
       </c>
-      <c r="H86" s="1">
-        <v>329781</v>
-      </c>
+      <c r="H86" s="1"/>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="1"/>
-        <v>Kleia_pot2,Kleia_pot2,Potency Conduit,pc,5,13,Kleia,329781,0</v>
+        <v>Kleia_fin2,Kleia_fin2,Finesse Conduit,fc,7,28,Kleia,,0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>1004</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>1004</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D87" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87">
         <v>28</v>
@@ -6731,83 +7347,90 @@
       <c r="G87" t="s">
         <v>99</v>
       </c>
+      <c r="H87" s="1"/>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="1"/>
-        <v>Kleia_end3,Kleia_end3,Endurance Conduit,ec,6,28,Kleia,,0</v>
+        <v>Kleia_pot2,Kleia_pot2,Potency Conduit,pc,7,28,Kleia,,0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C88" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
       </c>
       <c r="E88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>99</v>
       </c>
+      <c r="H88" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="1"/>
-        <v>328258,EForward,Ever Forward,sb,7,32,Kleia,,0</v>
+        <v>329778,PCourage,Pointed Courage,sb,8,34,Kleia,Kleia_fin2,0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
       </c>
       <c r="E89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F89">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>99</v>
       </c>
+      <c r="H89" s="1" t="s">
+        <v>1004</v>
+      </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="1"/>
-        <v>329784,CRites,Cleansing Rites,sb,7,32,Kleia,,0</v>
+        <v>329779,BPursuit,Bearer's Pursuit,sb,8,34,Kleia,Kleia_end3,1</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -6816,28 +7439,31 @@
         <v>8</v>
       </c>
       <c r="F90">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>99</v>
       </c>
+      <c r="H90" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="1"/>
-        <v>329791,VStrikes,Valiant Strikes,sb,8,39,Kleia,,0</v>
+        <v>329781,RAAccolade,Resonant Accolades,sb,8,34,Kleia,Kleia_pot2,0</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -6856,24 +7482,24 @@
       </c>
       <c r="J91" t="str">
         <f t="shared" si="1"/>
-        <v>325065,WHCharge,Wild Hunt's Charge,sb,1,0,Korayn,,0</v>
+        <v>325066,WHTactics,Wild Hunt Tactics,sb,1,0,Korayn,,0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6882,25 +7508,25 @@
         <v>181</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" si="1"/>
-        <v>325067,HotWH,Horn of the Wild Hunt,sb,1,0,Korayn,,0</v>
+        <v>325065,WHCharge,Wild Hunt's Charge,sb,2,0,Korayn,,1</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>156</v>
+        <v>1056</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>1207</v>
+        <v>1146</v>
       </c>
       <c r="D93" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -6911,32 +7537,29 @@
       <c r="G93" t="s">
         <v>181</v>
       </c>
-      <c r="H93" s="1">
-        <v>325065</v>
-      </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="1"/>
-        <v>Koryan_fin1,Koryan_fin1,Finesse Conduit,fc,2,0,Korayn,325065,0</v>
+        <v>325067,HotWH,Horn of the Wild Hunt,sb,2,0,Korayn,,0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C94" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D94" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6945,28 +7568,28 @@
         <v>181</v>
       </c>
       <c r="H94" s="1">
-        <v>325067</v>
+        <v>325065</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="1"/>
-        <v>Koryan_pot1,Koryan_pot1,Potency Conduit,pc,2,0,Korayn,325067,0</v>
+        <v>Koryan_fin1,Koryan_fin1,Finesse Conduit,fc,3,0,Korayn,325065,0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D95" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -6977,26 +7600,29 @@
       <c r="G95" t="s">
         <v>181</v>
       </c>
+      <c r="H95" s="1">
+        <v>325067</v>
+      </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="1"/>
-        <v>Koryan_end1,Koryan_end1,Endurance Conduit,ec,3,0,Korayn,,0</v>
+        <v>Koryan_pot1,Koryan_pot1,Potency Conduit,pc,3,0,Korayn,325067,0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>1057</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
-        <v>1147</v>
+        <v>1205</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -7012,24 +7638,24 @@
       </c>
       <c r="J96" t="str">
         <f t="shared" si="1"/>
-        <v>325068,FYFoes,Face Your Foes,sb,4,0,Korayn,,0</v>
+        <v>Koryan_end1,Koryan_end1,Endurance Conduit,ec,4,0,Korayn,,0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7038,28 +7664,28 @@
         <v>181</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="1"/>
-        <v>325069,FStrike,First Strike,sb,4,0,Korayn,,0</v>
+        <v>325072,VSTechn,Vorkai Sharpening Techniques,sb,5,0,Korayn,,1</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7072,7 +7698,7 @@
       </c>
       <c r="J98" t="str">
         <f t="shared" si="1"/>
-        <v>325601,HtLine,Hold the Line,sb,4,0,Korayn,,0</v>
+        <v>325073,GIForm,Get In Formation,sb,5,0,Korayn,,0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -7089,7 +7715,7 @@
         <v>2</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7097,15 +7723,13 @@
       <c r="G99" t="s">
         <v>181</v>
       </c>
-      <c r="H99" s="1">
-        <v>325069</v>
-      </c>
+      <c r="H99" s="1"/>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="str">
         <f t="shared" si="1"/>
-        <v>Koryan_end2,Koryan_end2,Endurance Conduit,ec,5,0,Korayn,325069,0</v>
+        <v>Koryan_end2,Koryan_end2,Endurance Conduit,ec,6,0,Korayn,,0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -7122,23 +7746,21 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G100" t="s">
         <v>181</v>
       </c>
-      <c r="H100" s="1">
-        <v>325601</v>
-      </c>
+      <c r="H100" s="1"/>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="str">
         <f t="shared" si="1"/>
-        <v>Koryan_fin2,Koryan_fin2,Finesse Conduit,fc,5,0,Korayn,325601,0</v>
+        <v>Koryan_fin2,Koryan_fin2,Finesse Conduit,fc,7,28,Korayn,,0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -7155,23 +7777,21 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G101" t="s">
         <v>181</v>
       </c>
-      <c r="H101" s="1">
-        <v>325068</v>
-      </c>
+      <c r="H101" s="1"/>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="1"/>
-        <v>Koryan_pot2,Koryan_pot2,Potency Conduit,pc,5,0,Korayn,325068,0</v>
+        <v>Koryan_pot2,Koryan_pot2,Potency Conduit,pc,7,28,Korayn,,0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -7188,10 +7808,10 @@
         <v>2</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F102">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G102" t="s">
         <v>181</v>
@@ -7201,78 +7821,84 @@
       </c>
       <c r="J102" t="str">
         <f t="shared" si="1"/>
-        <v>Koryan_end3,Koryan_end3,Endurance Conduit,ec,6,27,Korayn,,0</v>
+        <v>Koryan_end3,Koryan_end3,Endurance Conduit,ec,7,28,Korayn,,0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>181</v>
       </c>
+      <c r="H103" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="1"/>
-        <v>325072,VSTechn,Vorkai Sharpening Techniques,sb,7,0,Korayn,,0</v>
+        <v>325068,FYFoes,Face Your Foes,sb,8,31,Korayn,Koryan_pot2,0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>181</v>
       </c>
+      <c r="H104" s="1" t="s">
+        <v>999</v>
+      </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="1"/>
-        <v>325073,GIForm,Get In Formation,sb,7,0,Korayn,,0</v>
+        <v>325069,FStrike,First Strike,sb,8,31,Korayn,Koryan_end3,0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -7281,17 +7907,20 @@
         <v>8</v>
       </c>
       <c r="F105">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>181</v>
       </c>
+      <c r="H105" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="1"/>
-        <v>325066,WHTactics,Wild Hunt Tactics,sb,8,39,Korayn,,0</v>
+        <v>325601,HtLine,Hold the Line,sb,8,31,Korayn,Koryan_fin2,1</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -7398,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>101</v>
@@ -7411,7 +8040,7 @@
       </c>
       <c r="J109" t="str">
         <f t="shared" si="1"/>
-        <v>Mari_pot1,Mari_pot1,Potency Conduit,pc,3,5,Mari,,0</v>
+        <v>Mari_pot1,Mari_pot1,Potency Conduit,pc,2,0,Mari,,0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -7428,20 +8057,23 @@
         <v>4</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G110" t="s">
         <v>101</v>
       </c>
+      <c r="H110" t="s">
+        <v>129</v>
+      </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="str">
         <f t="shared" si="1"/>
-        <v>323089,TwBloop,Travel with Bloop,sb,4,8,Mari,,0</v>
+        <v>323089,TwBloop,Travel with Bloop,sb,3,3,Mari,Mari_end1,1</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -7458,20 +8090,23 @@
         <v>4</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G111" t="s">
         <v>101</v>
       </c>
+      <c r="H111" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111" t="str">
         <f t="shared" si="1"/>
-        <v>323090,PPStrike,Plaguey's Preemptive Strike,sb,4,8,Mari,,0</v>
+        <v>323090,PPStrike,Plaguey's Preemptive Strike,sb,3,3,Mari,Mari_fin1,0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -7488,127 +8123,122 @@
         <v>4</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F112">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G112" t="s">
         <v>101</v>
       </c>
+      <c r="H112" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="str">
         <f t="shared" si="1"/>
-        <v>323091,OFCoat,Ooz's Frictionless Coating,sb,4,8,Mari,,0</v>
+        <v>323091,OFCoat,Ooz's Frictionless Coating,sb,3,3,Mari,Mari_pot1,0</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G113" t="s">
         <v>101</v>
       </c>
-      <c r="H113" s="1">
-        <v>323090</v>
-      </c>
+      <c r="H113" s="1"/>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="str">
         <f t="shared" si="1"/>
-        <v>Mari_fin2,Mari_fin2,Finesse Conduit,fc,5,15,Mari,323090,0</v>
+        <v>Mari_pot2,Mari_pot2,Potency Conduit,pc,4,9,Mari,,0</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>126</v>
+        <v>1042</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>1206</v>
+        <v>1132</v>
       </c>
       <c r="D114" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E114">
         <v>5</v>
       </c>
       <c r="F114">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
         <v>101</v>
       </c>
-      <c r="H114" s="1">
-        <v>323091</v>
-      </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="str">
         <f t="shared" si="1"/>
-        <v>Mari_pot2,Mari_pot2,Potency Conduit,pc,5,15,Mari,323091,0</v>
+        <v>323079,Keyring,Kevin's Keyring,sb,5,10,Mari,,1</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>130</v>
+        <v>1043</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="C115" t="s">
-        <v>1205</v>
+        <v>1133</v>
       </c>
       <c r="D115" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115">
         <v>5</v>
       </c>
       <c r="F115">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
         <v>101</v>
       </c>
-      <c r="H115" s="1">
-        <v>323089</v>
-      </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" t="str">
         <f t="shared" si="1"/>
-        <v>Mari_end2,Mari_end2,Endurance Conduit,ec,5,15,Mari,323089,0</v>
+        <v>323081,PCSlime,Plagueborn Cleansing Slime,sb,5,10,Mari,,0</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="C116" t="s">
         <v>1205</v>
@@ -7620,7 +8250,7 @@
         <v>6</v>
       </c>
       <c r="F116">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G116" t="s">
         <v>101</v>
@@ -7630,67 +8260,69 @@
       </c>
       <c r="J116" t="str">
         <f t="shared" si="1"/>
-        <v>Mari_end3,Mari_end3,Endurance Conduit,ec,6,25,Mari,,0</v>
+        <v>Mari_end2,Mari_end2,Endurance Conduit,ec,6,21,Mari,,0</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>1042</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C117" t="s">
-        <v>1132</v>
+        <v>1207</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>7</v>
       </c>
       <c r="F117">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G117" t="s">
         <v>101</v>
       </c>
+      <c r="H117" s="1"/>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="str">
         <f t="shared" si="1"/>
-        <v>323079,Keyring,Kevin's Keyring,sb,7,31,Mari,,0</v>
+        <v>Mari_fin2,Mari_fin2,Finesse Conduit,fc,7,25,Mari,,0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>1043</v>
+        <v>1000</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="C118" t="s">
-        <v>1133</v>
+        <v>1205</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>7</v>
       </c>
       <c r="F118">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G118" t="s">
         <v>101</v>
       </c>
+      <c r="H118" s="1"/>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="str">
         <f t="shared" si="1"/>
-        <v>323081,PCSlime,Plagueborn Cleansing Slime,sb,7,31,Mari,,0</v>
+        <v>Mari_end3,Mari_end3,Endurance Conduit,ec,7,25,Mari,,0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -7710,7 +8342,7 @@
         <v>8</v>
       </c>
       <c r="F119">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
         <v>101</v>
@@ -7720,18 +8352,18 @@
       </c>
       <c r="J119" t="str">
         <f t="shared" si="1"/>
-        <v>323095,UForm,Ultimate Form,sb,8,39,Mari,,0</v>
+        <v>323095,UForm,Ultimate Form,sb,8,30,Mari,,0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C120" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -7750,24 +8382,24 @@
       </c>
       <c r="J120" t="str">
         <f t="shared" si="1"/>
-        <v>331576,AChaos,Agent of Chaos,sb,1,0,Nadjia,,0</v>
+        <v>331586,TSeeker,Thrill Seeker,sb,1,0,Nadjia,,0</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>1085</v>
+        <v>164</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C121" t="s">
-        <v>1175</v>
+        <v>1205</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -7775,26 +8407,27 @@
       <c r="G121" t="s">
         <v>104</v>
       </c>
+      <c r="H121" s="1"/>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="str">
         <f t="shared" si="1"/>
-        <v>331577,FFootwork,Fancy Footwork,sb,1,0,Nadjia,,1</v>
+        <v>Nadjia_end1,Nadjia_end1,Endurance Conduit,ec,2,0,Nadjia,,0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B122" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C122" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D122" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -7805,98 +8438,99 @@
       <c r="G122" t="s">
         <v>104</v>
       </c>
-      <c r="H122" s="1">
-        <v>331577</v>
-      </c>
+      <c r="H122" s="1"/>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="str">
         <f t="shared" si="1"/>
-        <v>Nadjia_end1,Nadjia_end1,Endurance Conduit,ec,2,0,Nadjia,331577,0</v>
+        <v>Nadjia_pot1,Nadjia_pot1,Potency Conduit,pc,2,0,Nadjia,,0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>160</v>
+        <v>1084</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="C123" t="s">
-        <v>1206</v>
+        <v>1174</v>
       </c>
       <c r="D123" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G123" t="s">
         <v>104</v>
       </c>
-      <c r="H123" s="1">
-        <v>331576</v>
+      <c r="H123" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="str">
         <f t="shared" si="1"/>
-        <v>Nadjia_pot1,Nadjia_pot1,Potency Conduit,pc,2,0,Nadjia,331576,0</v>
+        <v>331576,AChaos,Agent of Chaos,sb,3,3,Nadjia,Nadjia_pot1,0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>162</v>
+        <v>1085</v>
       </c>
       <c r="B124" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="C124" t="s">
-        <v>1207</v>
+        <v>1175</v>
       </c>
       <c r="D124" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E124">
         <v>3</v>
       </c>
       <c r="F124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G124" t="s">
         <v>104</v>
       </c>
+      <c r="H124" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="str">
         <f t="shared" si="1"/>
-        <v>Nadjia_fin1,Nadjia_fin1,Finesse Conduit,fc,3,5,Nadjia,,0</v>
+        <v>331577,FFootwork,Fancy Footwork,sb,3,3,Nadjia,Nadjia_end1,1</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1086</v>
+        <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="C125" t="s">
-        <v>1176</v>
+        <v>1207</v>
       </c>
       <c r="D125" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>4</v>
       </c>
       <c r="F125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G125" t="s">
         <v>104</v>
@@ -7906,27 +8540,27 @@
       </c>
       <c r="J125" t="str">
         <f t="shared" si="1"/>
-        <v>331579,FiLPlaces,Friends in Low Places,sb,4,7,Nadjia,,0</v>
+        <v>Nadjia_fin1,Nadjia_fin1,Finesse Conduit,fc,4,8,Nadjia,,0</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>165</v>
+        <v>1086</v>
       </c>
       <c r="B126" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s">
-        <v>1205</v>
+        <v>1176</v>
       </c>
       <c r="D126" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E126">
         <v>5</v>
       </c>
       <c r="F126">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G126" t="s">
         <v>104</v>
@@ -7936,27 +8570,27 @@
       </c>
       <c r="J126" t="str">
         <f t="shared" si="1"/>
-        <v>Nadjia_end2,Nadjia_end2,Endurance Conduit,ec,5,16,Nadjia,,0</v>
+        <v>331579,FiLPlaces,Friends in Low Places,sb,5,10,Nadjia,,0</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D127" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F127">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G127" t="s">
         <v>104</v>
@@ -7966,27 +8600,27 @@
       </c>
       <c r="J127" t="str">
         <f t="shared" si="1"/>
-        <v>Nadjia_fin2,Nadjia_fin2,Finesse Conduit,fc,5,16,Nadjia,,0</v>
+        <v>Nadjia_end2,Nadjia_end2,Endurance Conduit,ec,6,21,Nadjia,,0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B128" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D128" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F128">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G128" t="s">
         <v>104</v>
@@ -7996,147 +8630,144 @@
       </c>
       <c r="J128" t="str">
         <f t="shared" si="1"/>
-        <v>Nadjia_pot2,Nadjia_pot2,Potency Conduit,pc,5,16,Nadjia,,0</v>
+        <v>Nadjia_fin2,Nadjia_fin2,Finesse Conduit,fc,7,25,Nadjia,,0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>1087</v>
+        <v>161</v>
       </c>
       <c r="B129" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C129" t="s">
-        <v>1177</v>
+        <v>1206</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F129">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G129" t="s">
         <v>104</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="1"/>
-        <v>331580,EPreparation,Exacting Preparation,sb,6,24,Nadjia,Nadjia_end2,1</v>
+        <f t="shared" ref="J129:J177" si="2">CONCATENATE(A129,",",B129,",",C129,",",D129,",",E129,",",F129,",",G129,",",H129,",",I129)</f>
+        <v>Nadjia_pot2,Nadjia_pot2,Potency Conduit,pc,7,25,Nadjia,,0</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B130" t="s">
-        <v>69</v>
+        <v>995</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>995</v>
       </c>
       <c r="C130" t="s">
-        <v>1178</v>
+        <v>1205</v>
       </c>
       <c r="D130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F130">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G130" t="s">
         <v>104</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" ref="J130:J177" si="2">CONCATENATE(A130,",",B130,",",C130,",",D130,",",E130,",",F130,",",G130,",",H130,",",I130)</f>
-        <v>331582,FPredic,Familiar Predicaments,sb,6,24,Nadjia,Nadjia_pot2,0</v>
+        <f t="shared" si="2"/>
+        <v>Nadjia_end3,Nadjia_end3,Endurance Conduit,ec,7,25,Nadjia,,0</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B131" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C131" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
       </c>
       <c r="E131">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F131">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>104</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="str">
         <f t="shared" si="2"/>
-        <v>331584,DDuelist,Dauntless Duelist,sb,6,24,Nadjia,Nadjia_fin2,0</v>
+        <v>331580,EPreparation,Exacting Preparation,sb,8,30,Nadjia,Nadjia_end2,0</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>995</v>
+        <v>1088</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
       </c>
       <c r="C132" t="s">
-        <v>1205</v>
+        <v>1178</v>
       </c>
       <c r="D132" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F132">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
         <v>104</v>
       </c>
+      <c r="H132" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="str">
         <f t="shared" si="2"/>
-        <v>Nadjia_end3,Nadjia_end3,Endurance Conduit,ec,7,31,Nadjia,,0</v>
+        <v>331582,FPredic,Familiar Predicaments,sb,8,30,Nadjia,Nadjia_pot2,0</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C133" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -8145,28 +8776,31 @@
         <v>8</v>
       </c>
       <c r="F133">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>104</v>
       </c>
+      <c r="H133" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="str">
         <f t="shared" si="2"/>
-        <v>331586,TSeeker,Thrill Seeker,sb,8,39,Nadjia,,0</v>
+        <v>331584,DDuelist,Dauntless Duelist,sb,8,30,Nadjia,Nadjia_fin2,0</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -8185,24 +8819,24 @@
       </c>
       <c r="J134" t="str">
         <f t="shared" si="2"/>
-        <v>320658,SotMove,Stay on the Move,sb,1,0,Niya,,0</v>
+        <v>322721,GInvigor,Grove Invigoration,sb,1,0,Niya,,0</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>1112</v>
+        <v>1034</v>
       </c>
       <c r="B135" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>1204</v>
+        <v>1124</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -8211,25 +8845,25 @@
         <v>103</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="str">
         <f t="shared" si="2"/>
-        <v>342270,RWTiring,Run Without Tiring,sb,1,0,Niya,,0</v>
+        <v>320658,SotMove,Stay on the Move,sb,2,0,Niya,,1</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>146</v>
+        <v>1112</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="C136" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D136" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -8240,98 +8874,98 @@
       <c r="G136" t="s">
         <v>103</v>
       </c>
-      <c r="H136" s="1">
-        <v>320658</v>
-      </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136" t="str">
         <f t="shared" si="2"/>
-        <v>Niya_end1,Niya_end1,Endurance Conduit,ec,2,0,Niya,320658,0</v>
+        <v>342270,RWTiring,Run Without Tiring,sb,2,0,Niya,,0</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C137" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D137" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G137" t="s">
         <v>103</v>
       </c>
       <c r="H137" s="1">
-        <v>342270</v>
+        <v>320658</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137" t="str">
         <f t="shared" si="2"/>
-        <v>Niya_pot1,Niya_pot1,Potency Conduit,pc,2,0,Niya,342270,0</v>
+        <v>Niya_end1,Niya_end1,Endurance Conduit,ec,3,3,Niya,320658,0</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>3</v>
       </c>
       <c r="F138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G138" t="s">
         <v>103</v>
       </c>
+      <c r="H138" s="1">
+        <v>342270</v>
+      </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="str">
         <f t="shared" si="2"/>
-        <v>Niya_fin1,Niya_fin1,Finesse Conduit,fc,3,5,Niya,,0</v>
+        <v>Niya_pot1,Niya_pot1,Potency Conduit,pc,3,3,Niya,342270,0</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>1035</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>1125</v>
+        <v>1207</v>
       </c>
       <c r="D139" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>4</v>
       </c>
       <c r="F139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G139" t="s">
         <v>103</v>
@@ -8341,57 +8975,57 @@
       </c>
       <c r="J139" t="str">
         <f t="shared" si="2"/>
-        <v>320659,NTBurs,Niya's Tools: Burrs,sb,4,7,Niya,,0</v>
+        <v>Niya_fin1,Niya_fin1,Finesse Conduit,fc,4,8,Niya,,0</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
       </c>
       <c r="E140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G140" t="s">
         <v>103</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="2"/>
-        <v>320660,NTPoison,Niya's Tools: Poison,sb,4,7,Niya,,0</v>
+        <v>320668,NSplendor,Nature's Splendor,sb,5,10,Niya,,1</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
       </c>
       <c r="E141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G141" t="s">
         <v>103</v>
@@ -8401,7 +9035,7 @@
       </c>
       <c r="J141" t="str">
         <f t="shared" si="2"/>
-        <v>320662,NTHerbs,Niya's Tools: Herbs,sb,4,7,Niya,,0</v>
+        <v>320687,SPatrol,Swift Patrol,sb,5,10,Niya,,0</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -8418,23 +9052,21 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F142">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G142" t="s">
         <v>103</v>
       </c>
-      <c r="H142" s="1">
-        <v>320659</v>
-      </c>
+      <c r="H142" s="1"/>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" t="str">
         <f t="shared" si="2"/>
-        <v>Niya_end2,Niya_end2,Endurance Conduit,ec,5,16,Niya,320659,0</v>
+        <v>Niya_end2,Niya_end2,Endurance Conduit,ec,6,18,Niya,,0</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -8451,23 +9083,21 @@
         <v>1</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F143">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G143" t="s">
         <v>103</v>
       </c>
-      <c r="H143" s="1">
-        <v>320662</v>
-      </c>
+      <c r="H143" s="1"/>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="2"/>
-        <v>Niya_fin2,Niya_fin2,Finesse Conduit,fc,5,16,Niya,320662,0</v>
+        <v>Niya_fin2,Niya_fin2,Finesse Conduit,fc,7,25,Niya,,0</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -8484,23 +9114,21 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F144">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G144" t="s">
         <v>103</v>
       </c>
-      <c r="H144" s="1">
-        <v>320660</v>
-      </c>
+      <c r="H144" s="1"/>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="str">
         <f t="shared" si="2"/>
-        <v>Niya_pot2,Niya_pot2,Potency Conduit,pc,5,16,Niya,320660,0</v>
+        <v>Niya_pot2,Niya_pot2,Potency Conduit,pc,7,25,Niya,,0</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -8517,10 +9145,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F145">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G145" t="s">
         <v>103</v>
@@ -8530,78 +9158,84 @@
       </c>
       <c r="J145" t="str">
         <f t="shared" si="2"/>
-        <v>Niya_end3,Niya_end3,Endurance Conduit,ec,6,24,Niya,,0</v>
+        <v>Niya_end3,Niya_end3,Endurance Conduit,ec,7,25,Niya,,0</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
       </c>
       <c r="E146">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F146">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>103</v>
       </c>
+      <c r="H146" s="1" t="s">
+        <v>997</v>
+      </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146" t="str">
         <f t="shared" si="2"/>
-        <v>320668,NSplendor,Nature's Splendor,sb,7,31,Niya,,0</v>
+        <v>320659,NTBurs,Niya's Tools: Burrs,sb,8,30,Niya,Niya_end3,0</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
       </c>
       <c r="E147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F147">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>103</v>
       </c>
+      <c r="H147" t="s">
+        <v>143</v>
+      </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="str">
         <f t="shared" si="2"/>
-        <v>320687,SPatrol,Swift Patrol,sb,7,31,Niya,,0</v>
+        <v>320660,NTPoison,Niya's Tools: Poison,sb,8,30,Niya,Niya_pot2,0</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C148" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -8610,28 +9244,31 @@
         <v>8</v>
       </c>
       <c r="F148">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>103</v>
       </c>
+      <c r="H148" t="s">
+        <v>145</v>
+      </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="str">
         <f t="shared" si="2"/>
-        <v>322721,GInvigor,Grove Invigoration,sb,8,39,Niya,,0</v>
+        <v>320662,NTHerbs,Niya's Tools: Herbs,sb,8,30,Niya,Niya_fin2,0</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C149" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -8650,7 +9287,7 @@
       </c>
       <c r="J149" t="str">
         <f t="shared" si="2"/>
-        <v>328257,LGtP,Let Go of the Past,sb,1,0,Pelagos,,0</v>
+        <v>328266,CMed,Combat Meditation,sb,1,0,Pelagos,,0</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -8727,10 +9364,10 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G152" t="s">
         <v>98</v>
@@ -8740,7 +9377,7 @@
       </c>
       <c r="J152" t="str">
         <f t="shared" si="2"/>
-        <v>Pelagos_pot1,Pelagos_pot1,Potency Conduit,pc,3,5,Pelagos,,0</v>
+        <v>Pelagos_pot1,Pelagos_pot1,Potency Conduit,pc,2,0,Pelagos,,0</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -8757,20 +9394,23 @@
         <v>4</v>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F153">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G153" t="s">
         <v>98</v>
       </c>
+      <c r="H153" t="s">
+        <v>107</v>
+      </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153" t="str">
         <f t="shared" si="2"/>
-        <v>328261,FMantra,Focusing Mantra,sb,4,8,Pelagos,,0</v>
+        <v>328261,FMantra,Focusing Mantra,sb,3,3,Pelagos,Pelagos_pot1,0</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -8787,20 +9427,23 @@
         <v>4</v>
       </c>
       <c r="E154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F154">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G154" t="s">
         <v>98</v>
       </c>
+      <c r="H154" t="s">
+        <v>109</v>
+      </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="str">
         <f t="shared" si="2"/>
-        <v>329777,PoPatience,Phial of Patience,sb,4,8,Pelagos,,0</v>
+        <v>329777,PoPatience,Phial of Patience,sb,3,3,Pelagos,Pelagos_fin1,1</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -8817,119 +9460,114 @@
         <v>4</v>
       </c>
       <c r="E155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F155">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G155" t="s">
         <v>98</v>
       </c>
+      <c r="H155" t="s">
+        <v>111</v>
+      </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="str">
         <f t="shared" si="2"/>
-        <v>329786,RoTrials,Road of Trials,sb,4,8,Pelagos,,0</v>
+        <v>329786,RoTrials,Road of Trials,sb,3,3,Pelagos,Pelagos_end1,1</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B156" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C156" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D156" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F156">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G156" t="s">
         <v>98</v>
       </c>
-      <c r="H156" s="1">
-        <v>329786</v>
-      </c>
+      <c r="H156" s="1"/>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="str">
         <f t="shared" si="2"/>
-        <v>Pelagos_end2,Pelagos_end2,Endurance Conduit,ec,5,15,Pelagos,329786,0</v>
+        <v>Pelagos_pot2,Pelagos_pot2,Potency Conduit,pc,4,8,Pelagos,,0</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>110</v>
+        <v>1073</v>
       </c>
       <c r="B157" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C157" t="s">
-        <v>1207</v>
+        <v>1163</v>
       </c>
       <c r="D157" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157">
         <v>5</v>
       </c>
       <c r="F157">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G157" t="s">
         <v>98</v>
       </c>
-      <c r="H157" s="1">
-        <v>329777</v>
-      </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="str">
         <f t="shared" si="2"/>
-        <v>Pelagos_fin2,Pelagos_fin2,Finesse Conduit,fc,5,15,Pelagos,329777,0</v>
+        <v>328263,CVest,Cleansed Vestments,sb,5,10,Pelagos,,1</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>108</v>
+        <v>1074</v>
       </c>
       <c r="B158" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C158" t="s">
-        <v>1206</v>
+        <v>1164</v>
       </c>
       <c r="D158" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E158">
         <v>5</v>
       </c>
       <c r="F158">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G158" t="s">
         <v>98</v>
       </c>
-      <c r="H158" s="1">
-        <v>328261</v>
-      </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="str">
         <f t="shared" si="2"/>
-        <v>Pelagos_pot2,Pelagos_pot2,Potency Conduit,pc,5,15,Pelagos,328261,0</v>
+        <v>328265,BfFriend,Bond of Friendship,sb,5,10,Pelagos,,0</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -8937,7 +9575,7 @@
         <v>1003</v>
       </c>
       <c r="B159" t="s">
-        <v>1003</v>
+        <v>112</v>
       </c>
       <c r="C159" t="s">
         <v>1205</v>
@@ -8949,7 +9587,7 @@
         <v>6</v>
       </c>
       <c r="F159">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G159" t="s">
         <v>98</v>
@@ -8959,78 +9597,80 @@
       </c>
       <c r="J159" t="str">
         <f t="shared" si="2"/>
-        <v>Pelagos_end3,Pelagos_end3,Endurance Conduit,ec,6,25,Pelagos,,0</v>
+        <v>Pelagos_end3,Pelagos_end2,Endurance Conduit,ec,6,21,Pelagos,,0</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>1073</v>
+        <v>112</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>1003</v>
       </c>
       <c r="C160" t="s">
-        <v>1163</v>
+        <v>1205</v>
       </c>
       <c r="D160" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>7</v>
       </c>
       <c r="F160">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G160" t="s">
         <v>98</v>
       </c>
+      <c r="H160" s="1"/>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160" t="str">
         <f t="shared" si="2"/>
-        <v>328263,CVest,Cleansed Vestments,sb,7,31,Pelagos,,0</v>
+        <v>Pelagos_end2,Pelagos_end3,Endurance Conduit,ec,7,27,Pelagos,,0</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>1074</v>
+        <v>110</v>
       </c>
       <c r="B161" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C161" t="s">
-        <v>1164</v>
+        <v>1207</v>
       </c>
       <c r="D161" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>7</v>
       </c>
       <c r="F161">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G161" t="s">
         <v>98</v>
       </c>
+      <c r="H161" s="1"/>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161" t="str">
         <f t="shared" si="2"/>
-        <v>328265,BfFriend,Bond of Friendship,sb,7,31,Pelagos,,0</v>
+        <v>Pelagos_fin2,Pelagos_fin2,Finesse Conduit,fc,7,27,Pelagos,,0</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="B162" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C162" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
@@ -9039,7 +9679,7 @@
         <v>8</v>
       </c>
       <c r="F162">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>98</v>
@@ -9049,18 +9689,18 @@
       </c>
       <c r="J162" t="str">
         <f t="shared" si="2"/>
-        <v>328266,CMed,Combat Meditation,sb,8,39,Pelagos,,0</v>
+        <v>328257,LGtP,Let Go of the Past,sb,8,30,Pelagos,,0</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>1104</v>
+        <v>1007</v>
       </c>
       <c r="B163" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C163" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
@@ -9079,24 +9719,24 @@
       </c>
       <c r="J163" t="str">
         <f t="shared" si="2"/>
-        <v>336140,WtShoes,Watch the Shoes!,sb,1,0,Theotar,,0</v>
+        <v>336239,SShade,Soothing Shade,sb,1,0,Theotar,,0</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C164" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -9105,25 +9745,25 @@
         <v>105</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="str">
         <f t="shared" si="2"/>
-        <v>336147,LGait,Leisurely Gait,sb,1,0,Theotar,,0</v>
+        <v>336140,WtShoes,Watch the Shoes!,sb,2,0,Theotar,,1</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>170</v>
+        <v>1105</v>
       </c>
       <c r="B165" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="C165" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="D165" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -9134,32 +9774,29 @@
       <c r="G165" t="s">
         <v>105</v>
       </c>
-      <c r="H165" s="1">
-        <v>336140</v>
-      </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="str">
         <f t="shared" si="2"/>
-        <v>Theotar_end1,Theotar_end1,Endurance Conduit,ec,2,0,Theotar,336140,0</v>
+        <v>336147,LGait,Leisurely Gait,sb,2,0,Theotar,,0</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D166" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -9168,28 +9805,28 @@
         <v>105</v>
       </c>
       <c r="H166" s="1">
-        <v>336147</v>
+        <v>336140</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="str">
         <f t="shared" si="2"/>
-        <v>Theotar_fin1,Theotar_fin1,Finesse Conduit,fc,2,0,Theotar,336147,0</v>
+        <v>Theotar_end1,Theotar_end1,Endurance Conduit,ec,3,0,Theotar,336140,0</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D167" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>3</v>
@@ -9200,32 +9837,35 @@
       <c r="G167" t="s">
         <v>105</v>
       </c>
+      <c r="H167" s="1">
+        <v>336147</v>
+      </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="str">
         <f t="shared" si="2"/>
-        <v>Theotar_pot1,Theotar_pot1,Potency Conduit,pc,3,0,Theotar,,0</v>
+        <v>Theotar_fin1,Theotar_fin1,Finesse Conduit,fc,3,0,Theotar,336147,0</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>1007</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="C168" t="s">
-        <v>1197</v>
+        <v>1206</v>
       </c>
       <c r="D168" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>4</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G168" t="s">
         <v>105</v>
@@ -9235,57 +9875,57 @@
       </c>
       <c r="J168" t="str">
         <f t="shared" si="2"/>
-        <v>336239,SShade,Soothing Shade,sb,4,10,Theotar,,0</v>
+        <v>Theotar_pot1,Theotar_pot1,Potency Conduit,pc,4,9,Theotar,,0</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>1008</v>
+        <v>1106</v>
       </c>
       <c r="B169" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C169" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
       </c>
       <c r="E169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F169">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
         <v>105</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="str">
         <f t="shared" si="2"/>
-        <v>336243,RPalate,Refined Palate,sb,4,10,Theotar,,0</v>
+        <v>336184,EIngredients,Exquisite Ingredients,sb,5,13,Theotar,,1</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B170" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C170" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
       </c>
       <c r="E170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F170">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
         <v>105</v>
@@ -9295,7 +9935,7 @@
       </c>
       <c r="J170" t="str">
         <f t="shared" si="2"/>
-        <v>336245,ToApprec,Token of Appreciation,sb,4,10,Theotar,,0</v>
+        <v>336247,LotParty,Life of the Party,sb,5,13,Theotar,,0</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -9312,23 +9952,21 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F171">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G171" t="s">
         <v>105</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>1008</v>
-      </c>
+      <c r="H171" s="1"/>
       <c r="I171">
         <v>0</v>
       </c>
       <c r="J171" t="str">
         <f t="shared" si="2"/>
-        <v>Theotar_end2,Theotar_end2,Endurance Conduit,ec,5,13,Theotar,336243,0</v>
+        <v>Theotar_end2,Theotar_end2,Endurance Conduit,ec,6,18,Theotar,,0</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -9345,23 +9983,21 @@
         <v>1</v>
       </c>
       <c r="E172">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F172">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G172" t="s">
         <v>105</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>1007</v>
-      </c>
+      <c r="H172" s="1"/>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172" t="str">
         <f t="shared" si="2"/>
-        <v>Theotar_fin2,Theotar_fin2,Finesse Conduit,fc,5,13,Theotar,336239,0</v>
+        <v>Theotar_fin2,Theotar_fin2,Finesse Conduit,fc,7,28,Theotar,,0</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -9378,23 +10014,21 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F173">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G173" t="s">
         <v>105</v>
       </c>
-      <c r="H173" s="1">
-        <v>336245</v>
-      </c>
+      <c r="H173" s="1"/>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="str">
         <f t="shared" si="2"/>
-        <v>Theotar_pot2,Theotar_pot2,Potency Conduit,pc,5,13,Theotar,336245,0</v>
+        <v>Theotar_pot2,Theotar_pot2,Potency Conduit,pc,7,28,Theotar,,0</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -9411,7 +10045,7 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F174">
         <v>28</v>
@@ -9424,67 +10058,73 @@
       </c>
       <c r="J174" t="str">
         <f t="shared" si="2"/>
-        <v>Theotar_end3,Theotar_end3,Endurance Conduit,ec,6,28,Theotar,,0</v>
+        <v>Theotar_end3,Theotar_end3,Endurance Conduit,ec,7,28,Theotar,,0</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>1106</v>
+        <v>1008</v>
       </c>
       <c r="B175" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C175" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
       </c>
       <c r="E175">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F175">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
         <v>105</v>
       </c>
+      <c r="H175" s="1" t="s">
+        <v>996</v>
+      </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175" t="str">
         <f t="shared" si="2"/>
-        <v>336184,EIngredients,Exquisite Ingredients,sb,7,32,Theotar,,0</v>
+        <v>336243,RPalate,Refined Palate,sb,8,34,Theotar,Theotar_end3,0</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B176" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C176" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
       </c>
       <c r="E176">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F176">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>105</v>
       </c>
+      <c r="H176" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="str">
         <f t="shared" si="2"/>
-        <v>336247,LotParty,Life of the Party,sb,7,32,Theotar,,0</v>
+        <v>336245,ToApprec,Token of Appreciation,sb,8,34,Theotar,Theotar_pot2,0</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -9504,27 +10144,30 @@
         <v>8</v>
       </c>
       <c r="F177">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
         <v>105</v>
       </c>
+      <c r="H177" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="str">
         <f t="shared" si="2"/>
-        <v>319983,WProp,Wasteland Propriety,sb,8,39,Theotar,,0</v>
+        <v>319983,WProp,Wasteland Propriety,sb,8,34,Theotar,Theotar_fin2,0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J177">
-    <sortState ref="A2:I177">
+  <autoFilter ref="A1:J177" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
       <sortCondition ref="G2:G177"/>
       <sortCondition ref="E2:E177"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:G177">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G177">
     <sortCondition ref="G2:G177"/>
     <sortCondition ref="E2:E177"/>
   </sortState>
@@ -9533,12 +10176,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9612,7 +10255,7 @@
         <v>192</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K1:K66" si="0">CONCATENATE(A3,",",B3,",",C3,",",D3,",",E3,",",F3,",",G3)</f>
+        <f t="shared" ref="K3:K66" si="0">CONCATENATE(A3,",",B3,",",C3,",",D3,",",E3,",",F3,",",G3)</f>
         <v>7,335010,Brutal Vitality,,,,</v>
       </c>
     </row>
@@ -13916,7 +14559,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K274">
+  <autoFilter ref="A1:K274" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13928,7 +14571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14143,7 +14786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14213,6 +14856,2673 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A072932B-80A9-4BEA-888B-75EEB782215E}">
+  <dimension ref="A1:H191"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F2" t="str">
+        <f>SUBSTITUTE(LOWER(E2)," ","_")</f>
+        <v>slick_ice</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE("wrist=",F2,",bonus_id=",A2)</f>
+        <v>wrist=slick_ice,bonus_id=6823</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("copy=",F2,"
+",G2)</f>
+        <v>copy=slick_ice
+wrist=slick_ice,bonus_id=6823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">SUBSTITUTE(LOWER(E3)," ","_")</f>
+        <v>cold_front</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="1">CONCATENATE("wrist=",F3,",bonus_id=",A3)</f>
+        <v>wrist=cold_front,bonus_id=6828</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="2">CONCATENATE("copy=",F3,"
+",G3)</f>
+        <v>copy=cold_front
+wrist=cold_front,bonus_id=6828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>freezing_winds</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=freezing_winds,bonus_id=6829</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=freezing_winds
+wrist=freezing_winds,bonus_id=6829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>glacial_fragments</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=glacial_fragments,bonus_id=6830</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=glacial_fragments
+wrist=glacial_fragments,bonus_id=6830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>expanded_potential</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=expanded_potential,bonus_id=6831</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=expanded_potential
+wrist=expanded_potential,bonus_id=6831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>expanded_potential</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=expanded_potential,bonus_id=6831</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=expanded_potential
+wrist=expanded_potential,bonus_id=6831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>expanded_potential</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=expanded_potential,bonus_id=6831</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=expanded_potential
+wrist=expanded_potential,bonus_id=6831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>disciplinary_command</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=disciplinary_command,bonus_id=6832</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=disciplinary_command
+wrist=disciplinary_command,bonus_id=6832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>disciplinary_command</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=disciplinary_command,bonus_id=6832</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=disciplinary_command
+wrist=disciplinary_command,bonus_id=6832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>disciplinary_command</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=disciplinary_command,bonus_id=6832</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=disciplinary_command
+wrist=disciplinary_command,bonus_id=6832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>temporal_warp</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=temporal_warp,bonus_id=6834</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=temporal_warp
+wrist=temporal_warp,bonus_id=6834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>arcane_harmony</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=arcane_harmony,bonus_id=6926</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=arcane_harmony
+wrist=arcane_harmony,bonus_id=6926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>arcane_bombardment</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=arcane_bombardment,bonus_id=6927</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=arcane_bombardment
+wrist=arcane_bombardment,bonus_id=6927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>siphon_storm</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=siphon_storm,bonus_id=6928</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=siphon_storm
+wrist=siphon_storm,bonus_id=6928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>fevered_incantation</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=fevered_incantation,bonus_id=6931</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=fevered_incantation
+wrist=fevered_incantation,bonus_id=6931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>firestorm</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=firestorm,bonus_id=6932</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=firestorm
+wrist=firestorm,bonus_id=6932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>molten_skyfall</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=molten_skyfall,bonus_id=6933</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=molten_skyfall
+wrist=molten_skyfall,bonus_id=6933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>sun_king's_blessing</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=sun_king's_blessing,bonus_id=6934</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=sun_king's_blessing
+wrist=sun_king's_blessing,bonus_id=6934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>triune_ward</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=triune_ward,bonus_id=6936</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=triune_ward
+wrist=triune_ward,bonus_id=6936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>triune_ward</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=triune_ward,bonus_id=6936</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=triune_ward
+wrist=triune_ward,bonus_id=6936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>triune_ward</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=triune_ward,bonus_id=6936</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=triune_ward
+wrist=triune_ward,bonus_id=6936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>grisly_icicle</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=grisly_icicle,bonus_id=6937</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=grisly_icicle
+wrist=grisly_icicle,bonus_id=6937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>grisly_icicle</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=grisly_icicle,bonus_id=6937</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=grisly_icicle
+wrist=grisly_icicle,bonus_id=6937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>grisly_icicle</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=grisly_icicle,bonus_id=6937</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=grisly_icicle
+wrist=grisly_icicle,bonus_id=6937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>687</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>bryndaor's_might</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=bryndaor's_might,bonus_id=6940</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=bryndaor's_might
+wrist=bryndaor's_might,bonus_id=6940</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B27" t="s">
+        <v>687</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>crimson_rune_weapon</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=crimson_rune_weapon,bonus_id=6941</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=crimson_rune_weapon
+wrist=crimson_rune_weapon,bonus_id=6941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B28" t="s">
+        <v>687</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>vampiric_aura</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=vampiric_aura,bonus_id=6942</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=vampiric_aura
+wrist=vampiric_aura,bonus_id=6942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B29" t="s">
+        <v>687</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>gorefiend's_domination</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=gorefiend's_domination,bonus_id=6943</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=gorefiend's_domination
+wrist=gorefiend's_domination,bonus_id=6943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B30" t="s">
+        <v>688</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>koltira's_favor</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=koltira's_favor,bonus_id=6944</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=koltira's_favor
+wrist=koltira's_favor,bonus_id=6944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B31" t="s">
+        <v>688</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E31" t="s">
+        <v>386</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>biting_cold</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=biting_cold,bonus_id=6945</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=biting_cold
+wrist=biting_cold,bonus_id=6945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B32" t="s">
+        <v>688</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>absolute_zero</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=absolute_zero,bonus_id=6946</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=absolute_zero
+wrist=absolute_zero,bonus_id=6946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B33" t="s">
+        <v>687</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>death's_embrace</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=death's_embrace,bonus_id=6947</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=death's_embrace
+wrist=death's_embrace,bonus_id=6947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B34" t="s">
+        <v>688</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>death's_embrace</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=death's_embrace,bonus_id=6947</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=death's_embrace
+wrist=death's_embrace,bonus_id=6947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B35" t="s">
+        <v>689</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>death's_embrace</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=death's_embrace,bonus_id=6947</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=death's_embrace
+wrist=death's_embrace,bonus_id=6947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B36" t="s">
+        <v>687</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>grip_of_the_everlasting</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=grip_of_the_everlasting,bonus_id=6948</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=grip_of_the_everlasting
+wrist=grip_of_the_everlasting,bonus_id=6948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B37" t="s">
+        <v>688</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>grip_of_the_everlasting</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=grip_of_the_everlasting,bonus_id=6948</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=grip_of_the_everlasting
+wrist=grip_of_the_everlasting,bonus_id=6948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B38" t="s">
+        <v>689</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>grip_of_the_everlasting</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=grip_of_the_everlasting,bonus_id=6948</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=grip_of_the_everlasting
+wrist=grip_of_the_everlasting,bonus_id=6948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B39" t="s">
+        <v>689</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>reanimated_shambler</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=reanimated_shambler,bonus_id=6949</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=reanimated_shambler
+wrist=reanimated_shambler,bonus_id=6949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B40" t="s">
+        <v>689</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>frenzied_monstrosity</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=frenzied_monstrosity,bonus_id=6950</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=frenzied_monstrosity
+wrist=frenzied_monstrosity,bonus_id=6950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B41" t="s">
+        <v>689</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>death's_certainty</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=death's_certainty,bonus_id=6951</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=death's_certainty
+wrist=death's_certainty,bonus_id=6951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B42" t="s">
+        <v>689</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>deadliest_coil</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=deadliest_coil,bonus_id=6952</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=deadliest_coil
+wrist=deadliest_coil,bonus_id=6952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B43" t="s">
+        <v>687</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>superstrain</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=superstrain,bonus_id=6953</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=superstrain
+wrist=superstrain,bonus_id=6953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B44" t="s">
+        <v>688</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>superstrain</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=superstrain,bonus_id=6953</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=superstrain
+wrist=superstrain,bonus_id=6953</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B45" t="s">
+        <v>689</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>superstrain</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=superstrain,bonus_id=6953</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=superstrain
+wrist=superstrain,bonus_id=6953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>687</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>phearomones</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=phearomones,bonus_id=6954</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=phearomones
+wrist=phearomones,bonus_id=6954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B47" t="s">
+        <v>688</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>phearomones</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=phearomones,bonus_id=6954</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=phearomones
+wrist=phearomones,bonus_id=6954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B48" t="s">
+        <v>689</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>phearomones</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=phearomones,bonus_id=6954</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=phearomones
+wrist=phearomones,bonus_id=6954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>leaper</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=leaper,bonus_id=6955</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=leaper
+wrist=leaper,bonus_id=6955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B50" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>leaper</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=leaper,bonus_id=6955</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=leaper
+wrist=leaper,bonus_id=6955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B51" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>leaper</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=leaper,bonus_id=6955</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=leaper
+wrist=leaper,bonus_id=6955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B52" t="s">
+        <v>349</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>thunderlord</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=thunderlord,bonus_id=6956</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=thunderlord
+wrist=thunderlord,bonus_id=6956</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>the_wall</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=the_wall,bonus_id=6957</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=the_wall
+wrist=the_wall,bonus_id=6957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>misshapen_mirror</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=misshapen_mirror,bonus_id=6958</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=misshapen_mirror
+wrist=misshapen_mirror,bonus_id=6958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B55" t="s">
+        <v>347</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>misshapen_mirror</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=misshapen_mirror,bonus_id=6958</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=misshapen_mirror
+wrist=misshapen_mirror,bonus_id=6958</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B56" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>misshapen_mirror</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=misshapen_mirror,bonus_id=6958</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=misshapen_mirror
+wrist=misshapen_mirror,bonus_id=6958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B57" t="s">
+        <v>345</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>signet_of_tormented_kings</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=signet_of_tormented_kings,bonus_id=6959</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=signet_of_tormented_kings
+wrist=signet_of_tormented_kings,bonus_id=6959</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B58" t="s">
+        <v>347</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>signet_of_tormented_kings</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=signet_of_tormented_kings,bonus_id=6959</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=signet_of_tormented_kings
+wrist=signet_of_tormented_kings,bonus_id=6959</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B59" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>signet_of_tormented_kings</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=signet_of_tormented_kings,bonus_id=6959</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=signet_of_tormented_kings
+wrist=signet_of_tormented_kings,bonus_id=6959</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B60" t="s">
+        <v>345</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>battlelord</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=battlelord,bonus_id=6960</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=battlelord
+wrist=battlelord,bonus_id=6960</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B61" t="s">
+        <v>345</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>exploiter</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=exploiter,bonus_id=6961</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=exploiter
+wrist=exploiter,bonus_id=6961</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B62" t="s">
+        <v>345</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>enduring_blow</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=enduring_blow,bonus_id=6962</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=enduring_blow
+wrist=enduring_blow,bonus_id=6962</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B63" t="s">
+        <v>347</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>cadence_of_fujieda</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=cadence_of_fujieda,bonus_id=6963</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=cadence_of_fujieda
+wrist=cadence_of_fujieda,bonus_id=6963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B64" t="s">
+        <v>347</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>deathmaker</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=deathmaker,bonus_id=6964</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=deathmaker
+wrist=deathmaker,bonus_id=6964</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B65" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>reckless_defense</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=reckless_defense,bonus_id=6965</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=reckless_defense
+wrist=reckless_defense,bonus_id=6965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B66" t="s">
+        <v>347</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>will_of_the_berserker</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>wrist=will_of_the_berserker,bonus_id=6966</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>copy=will_of_the_berserker
+wrist=will_of_the_berserker,bonus_id=6966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B67" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F88" si="3">SUBSTITUTE(LOWER(E67)," ","_")</f>
+        <v>unbreakable_will</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G88" si="4">CONCATENATE("wrist=",F67,",bonus_id=",A67)</f>
+        <v>wrist=unbreakable_will,bonus_id=6967</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H88" si="5">CONCATENATE("copy=",F67,"
+",G67)</f>
+        <v>copy=unbreakable_will
+wrist=unbreakable_will,bonus_id=6967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B68" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>reprisal</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=reprisal,bonus_id=6969</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=reprisal
+wrist=reprisal,bonus_id=6969</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B69" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>unhinged</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=unhinged,bonus_id=6970</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=unhinged
+wrist=unhinged,bonus_id=6970</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B70" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>seismic_reverberation</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=seismic_reverberation,bonus_id=6971</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=seismic_reverberation
+wrist=seismic_reverberation,bonus_id=6971</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B71" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>seismic_reverberation</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=seismic_reverberation,bonus_id=6971</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=seismic_reverberation
+wrist=seismic_reverberation,bonus_id=6971</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B72" t="s">
+        <v>349</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>seismic_reverberation</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=seismic_reverberation,bonus_id=6971</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=seismic_reverberation
+wrist=seismic_reverberation,bonus_id=6971</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B73" t="s">
+        <v>693</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>vault_of_heavens</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=vault_of_heavens,bonus_id=6972</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=vault_of_heavens
+wrist=vault_of_heavens,bonus_id=6972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B74" t="s">
+        <v>694</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>vault_of_heavens</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=vault_of_heavens,bonus_id=6972</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=vault_of_heavens
+wrist=vault_of_heavens,bonus_id=6972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B75" t="s">
+        <v>695</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>vault_of_heavens</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=vault_of_heavens,bonus_id=6972</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=vault_of_heavens
+wrist=vault_of_heavens,bonus_id=6972</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B76" t="s">
+        <v>694</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>divine_image</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=divine_image,bonus_id=6973</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=divine_image
+wrist=divine_image,bonus_id=6973</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B77" t="s">
+        <v>694</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>flash_concentration</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=flash_concentration,bonus_id=6974</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=flash_concentration
+wrist=flash_concentration,bonus_id=6974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B78" t="s">
+        <v>693</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>cauterizing_shadows</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=cauterizing_shadows,bonus_id=6975</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=cauterizing_shadows
+wrist=cauterizing_shadows,bonus_id=6975</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B79" t="s">
+        <v>694</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v>cauterizing_shadows</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=cauterizing_shadows,bonus_id=6975</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=cauterizing_shadows
+wrist=cauterizing_shadows,bonus_id=6975</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B80" t="s">
+        <v>695</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>cauterizing_shadows</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=cauterizing_shadows,bonus_id=6975</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=cauterizing_shadows
+wrist=cauterizing_shadows,bonus_id=6975</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B81" t="s">
+        <v>693</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>the_penitent_one</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=the_penitent_one,bonus_id=6976</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=the_penitent_one
+wrist=the_penitent_one,bonus_id=6976</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B82" t="s">
+        <v>694</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v>harmonious_apparatus</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=harmonious_apparatus,bonus_id=6977</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=harmonious_apparatus
+wrist=harmonious_apparatus,bonus_id=6977</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B83" t="s">
+        <v>693</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v>crystalline_reflection</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=crystalline_reflection,bonus_id=6978</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=crystalline_reflection
+wrist=crystalline_reflection,bonus_id=6978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B84" t="s">
+        <v>693</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v>kiss_of_death</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=kiss_of_death,bonus_id=6979</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=kiss_of_death
+wrist=kiss_of_death,bonus_id=6979</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B85" t="s">
+        <v>693</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v>clarity_of_mind</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=clarity_of_mind,bonus_id=6980</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=clarity_of_mind
+wrist=clarity_of_mind,bonus_id=6980</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B86" t="s">
+        <v>695</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="3"/>
+        <v>painbreaker_psalm</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=painbreaker_psalm,bonus_id=6981</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=painbreaker_psalm
+wrist=painbreaker_psalm,bonus_id=6981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B87" t="s">
+        <v>695</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="3"/>
+        <v>shadowflame_prism</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=shadowflame_prism,bonus_id=6982</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=shadowflame_prism
+wrist=shadowflame_prism,bonus_id=6982</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B88" t="s">
+        <v>695</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v>eternal_call_to_the_void</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="4"/>
+        <v>wrist=eternal_call_to_the_void,bonus_id=6983</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="5"/>
+        <v>copy=eternal_call_to_the_void
+wrist=eternal_call_to_the_void,bonus_id=6983</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H88" xr:uid="{6CD2DD87-6A66-490B-93FA-A0BEBCC21442}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/covenants/Soulbinds.xlsx
+++ b/covenants/Soulbinds.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spung\repos\simc-profiles\covenants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SpanierTh\source\repos\simc-profiles\covenants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03226D5-6E2F-4A10-92EF-9ABBAC321452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="SoulbindAbilities" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Legendaries!$A$1:$H$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SoulbindAbilities!$A$1:$J$177</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="1413">
   <si>
     <t>pc</t>
   </si>
@@ -4287,7 +4286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4633,11 +4632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4833,11 +4832,11 @@
         <v>175</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>319982,MAOne,Move As One,sb,3,0,Draven,Draven_end1,0</v>
+        <v>319982,MAOne,Move As One,sb,3,0,Draven,Draven_end1,1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6052,13 +6051,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>1181</v>
+        <v>1192</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -6076,19 +6075,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v>331609,FFilter,Forgelite Filter,sb,1,0,Forgelite,,0</v>
+        <f>CONCATENATE(A46,",",B46,",",C46,",",D46,",",E46,",",F46,",",G46,",",H46,",",I46)</f>
+        <v>333950,BCtAction,Bron's Call to Action,sb,1,0,Forgelite,,0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -6103,22 +6102,22 @@
         <v>100</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="0"/>
-        <v>331610,CAdditive,Charged Additive,sb,2,0,Forgelite,,1</v>
+        <f>CONCATENATE(A47,",",B47,",",C47,",",D47,",",E47,",",F47,",",G47,",",H47,",",I47)</f>
+        <v>331609,FFilter,Forgelite Filter,sb,2,0,Forgelite,,0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -6133,11 +6132,11 @@
         <v>100</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="0"/>
-        <v>333950,BCtAction,Bron's Call to Action,sb,2,0,Forgelite,,0</v>
+        <f>CONCATENATE(A48,",",B48,",",C48,",",D48,",",E48,",",F48,",",G48,",",H48,",",I48)</f>
+        <v>331610,CAdditive,Charged Additive,sb,2,0,Forgelite,,1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -6169,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A49,",",B49,",",C49,",",D49,",",E49,",",F49,",",G49,",",H49,",",I49)</f>
         <v>Forgelite_end1,Forgelite_end1,Endurance Conduit,ec,3,0,Forgelite,331610,0</v>
       </c>
     </row>
@@ -6202,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A50,",",B50,",",C50,",",D50,",",E50,",",F50,",",G50,",",H50,",",I50)</f>
         <v>Forgelite_pot1,Forgelite_pot1,Potency Conduit,pc,3,0,Forgelite,331609,0</v>
       </c>
     </row>
@@ -6232,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A51,",",B51,",",C51,",",D51,",",E51,",",F51,",",G51,",",H51,",",I51)</f>
         <v>Forgelite_fin1,Forgelite_fin1,Finesse Conduit,fc,4,0,Forgelite,,0</v>
       </c>
     </row>
@@ -6262,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A52,",",B52,",",C52,",",D52,",",E52,",",F52,",",G52,",",H52,",",I52)</f>
         <v>331725,RPlumage,Resilient Plumage,sb,5,0,Forgelite,,0</v>
       </c>
     </row>
@@ -6292,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A53,",",B53,",",C53,",",D53,",",E53,",",F53,",",G53,",",H53,",",I53)</f>
         <v>331726,RMaterials,Regenerating Materials,sb,5,0,Forgelite,,1</v>
       </c>
     </row>
@@ -6323,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A54,",",B54,",",C54,",",D54,",",E54,",",F54,",",G54,",",H54,",",I54)</f>
         <v>Forgelite_end2,Forgelite_end2,Endurance Conduit,ec,6,0,Forgelite,,0</v>
       </c>
     </row>
@@ -6354,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A55,",",B55,",",C55,",",D55,",",E55,",",F55,",",G55,",",H55,",",I55)</f>
         <v>Forgelite_fin2,Forgelite_fin2,Finesse Conduit,fc,7,29,Forgelite,,0</v>
       </c>
     </row>
@@ -6385,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A56,",",B56,",",C56,",",D56,",",E56,",",F56,",",G56,",",H56,",",I56)</f>
         <v>Forgelite_pot2,Forgelite_pot2,Potency Conduit,pc,7,29,Forgelite,,0</v>
       </c>
     </row>
@@ -6416,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A57,",",B57,",",C57,",",D57,",",E57,",",F57,",",G57,",",H57,",",I57)</f>
         <v>Forgelite_end3,Forgelite_end3,Endurance Conduit,ec,7,29,Forgelite,,0</v>
       </c>
     </row>
@@ -6449,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A58,",",B58,",",C58,",",D58,",",E58,",",F58,",",G58,",",H58,",",I58)</f>
         <v>331611,SClamps,Soulsteel Clamps,sb,8,31,Forgelite,Forgelite_pot2,0</v>
       </c>
     </row>
@@ -6482,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A59,",",B59,",",C59,",",D59,",",E59,",",F59,",",G59,",",H59,",",I59)</f>
         <v>331612,SDCore,Sparkling Driftglobe Core,sb,8,31,Forgelite,Forgelite_fin2,1</v>
       </c>
     </row>
@@ -6515,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A60,",",B60,",",C60,",",D60,",",E60,",",F60,",",G60,",",H60,",",I60)</f>
         <v>333935,HoGenesis,Hammer of Genesis,sb,8,31,Forgelite,Forgelite_end3,0</v>
       </c>
     </row>
@@ -7481,22 +7480,22 @@
         <v>0</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A91,",",B91,",",C91,",",D91,",",E91,",",F91,",",G91,",",H91,",",I91)</f>
         <v>325066,WHTactics,Wild Hunt Tactics,sb,1,0,Korayn,,0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>1054</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="C92" t="s">
-        <v>1144</v>
+        <v>1206</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -7507,26 +7506,27 @@
       <c r="G92" t="s">
         <v>181</v>
       </c>
+      <c r="H92" s="1"/>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="1"/>
-        <v>325065,WHCharge,Wild Hunt's Charge,sb,2,0,Korayn,,1</v>
+        <f>CONCATENATE(A92,",",B92,",",C92,",",D92,",",E92,",",F92,",",G92,",",H92,",",I92)</f>
+        <v>Koryan_pot1,Koryan_pot1,Potency Conduit,pc,2,0,Korayn,,0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>1056</v>
+        <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C93" t="s">
-        <v>1146</v>
+        <v>1205</v>
       </c>
       <c r="D93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -7541,22 +7541,22 @@
         <v>0</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="1"/>
-        <v>325067,HotWH,Horn of the Wild Hunt,sb,2,0,Korayn,,0</v>
+        <f>CONCATENATE(A93,",",B93,",",C93,",",D93,",",E93,",",F93,",",G93,",",H93,",",I93)</f>
+        <v>Koryan_end1,Koryan_end1,Endurance Conduit,ec,2,0,Korayn,,0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>156</v>
+        <v>1054</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>1207</v>
+        <v>1144</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -7567,29 +7567,29 @@
       <c r="G94" t="s">
         <v>181</v>
       </c>
-      <c r="H94" s="1">
-        <v>325065</v>
+      <c r="H94" t="s">
+        <v>158</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="1"/>
-        <v>Koryan_fin1,Koryan_fin1,Finesse Conduit,fc,3,0,Korayn,325065,0</v>
+        <f>CONCATENATE(A94,",",B94,",",C94,",",D94,",",E94,",",F94,",",G94,",",H94,",",I94)</f>
+        <v>325065,WHCharge,Wild Hunt's Charge,sb,3,0,Korayn,Koryan_end1,1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>154</v>
+        <v>1056</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>1206</v>
+        <v>1146</v>
       </c>
       <c r="D95" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -7600,29 +7600,29 @@
       <c r="G95" t="s">
         <v>181</v>
       </c>
-      <c r="H95" s="1">
-        <v>325067</v>
+      <c r="H95" t="s">
+        <v>154</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="1"/>
-        <v>Koryan_pot1,Koryan_pot1,Potency Conduit,pc,3,0,Korayn,325067,0</v>
+        <f>CONCATENATE(A95,",",B95,",",C95,",",D95,",",E95,",",F95,",",G95,",",H95,",",I95)</f>
+        <v>325067,HotWH,Horn of the Wild Hunt,sb,3,0,Korayn,Koryan_pot1,0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -7633,12 +7633,13 @@
       <c r="G96" t="s">
         <v>181</v>
       </c>
+      <c r="H96" s="1"/>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="1"/>
-        <v>Koryan_end1,Koryan_end1,Endurance Conduit,ec,4,0,Korayn,,0</v>
+        <f>CONCATENATE(A96,",",B96,",",C96,",",D96,",",E96,",",F96,",",G96,",",H96,",",I96)</f>
+        <v>Koryan_fin1,Koryan_fin1,Finesse Conduit,fc,4,0,Korayn,,0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -7667,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A97,",",B97,",",C97,",",D97,",",E97,",",F97,",",G97,",",H97,",",I97)</f>
         <v>325072,VSTechn,Vorkai Sharpening Techniques,sb,5,0,Korayn,,1</v>
       </c>
     </row>
@@ -7697,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A98,",",B98,",",C98,",",D98,",",E98,",",F98,",",G98,",",H98,",",I98)</f>
         <v>325073,GIForm,Get In Formation,sb,5,0,Korayn,,0</v>
       </c>
     </row>
@@ -7728,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A99,",",B99,",",C99,",",D99,",",E99,",",F99,",",G99,",",H99,",",I99)</f>
         <v>Koryan_end2,Koryan_end2,Endurance Conduit,ec,6,0,Korayn,,0</v>
       </c>
     </row>
@@ -7759,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A100,",",B100,",",C100,",",D100,",",E100,",",F100,",",G100,",",H100,",",I100)</f>
         <v>Koryan_fin2,Koryan_fin2,Finesse Conduit,fc,7,28,Korayn,,0</v>
       </c>
     </row>
@@ -7790,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A101,",",B101,",",C101,",",D101,",",E101,",",F101,",",G101,",",H101,",",I101)</f>
         <v>Koryan_pot2,Koryan_pot2,Potency Conduit,pc,7,28,Korayn,,0</v>
       </c>
     </row>
@@ -7820,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A102,",",B102,",",C102,",",D102,",",E102,",",F102,",",G102,",",H102,",",I102)</f>
         <v>Koryan_end3,Koryan_end3,Endurance Conduit,ec,7,28,Korayn,,0</v>
       </c>
     </row>
@@ -7853,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A103,",",B103,",",C103,",",D103,",",E103,",",F103,",",G103,",",H103,",",I103)</f>
         <v>325068,FYFoes,Face Your Foes,sb,8,31,Korayn,Koryan_pot2,0</v>
       </c>
     </row>
@@ -7886,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A104,",",B104,",",C104,",",D104,",",E104,",",F104,",",G104,",",H104,",",I104)</f>
         <v>325069,FStrike,First Strike,sb,8,31,Korayn,Koryan_end3,0</v>
       </c>
     </row>
@@ -7919,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A105,",",B105,",",C105,",",D105,",",E105,",",F105,",",G105,",",H105,",",I105)</f>
         <v>325601,HtLine,Hold the Line,sb,8,31,Korayn,Koryan_fin2,1</v>
       </c>
     </row>
@@ -10161,13 +10162,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J177" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
+  <autoFilter ref="A1:J177">
+    <sortState ref="A91:J105">
       <sortCondition ref="G2:G177"/>
       <sortCondition ref="E2:E177"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G177">
+  <sortState ref="A2:G177">
     <sortCondition ref="G2:G177"/>
     <sortCondition ref="E2:E177"/>
   </sortState>
@@ -10176,12 +10177,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K274"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10459,11 +10460,11 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
-        <v>18,336472,Shivering Core,SC,Mage,Frost,pc,0,0,1</v>
+        <v>18,336472,Shivering Core,SC,Mage,Frost,pc,0,0,0</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10540,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -10550,7 +10551,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
-        <v>21,336569,Ice Bite,IB,Mage,Frost,pc,1,0,0</v>
+        <v>21,336569,Ice Bite,IB,Mage,Frost,pc,0,0,0</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10774,11 +10775,11 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE(A28,",",B28,",",C28,",",D28,",",E28,",",F28,",",G28,",",H28,",",I28,",",J28)</f>
-        <v>32,336852,Master Flame,MF,Mage,Fire,pc,0,0,1</v>
+        <v>32,336852,Master Flame,MF,Mage,Fire,pc,0,0,0</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -14559,7 +14560,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K274" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:K274">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14571,7 +14572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14786,7 +14787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14861,7 +14862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A072932B-80A9-4BEA-888B-75EEB782215E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17522,7 +17523,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H88" xr:uid="{6CD2DD87-6A66-490B-93FA-A0BEBCC21442}"/>
+  <autoFilter ref="A1:H88"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
